--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="104">
   <si>
     <t>Doi</t>
   </si>
@@ -424,6 +424,16 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,    H.-C.% Zhang%null%1,    T.% Xu%null%1,    J.% Wu%null%1,    M.% Zhu%null%1,    Y.-Q.% Yu%null%1,    H.-Y.% Zhang%null%1,    Z.% Shen%null%1,    Y.% Li%null%0,    X.% Zhou%null%0,    G.-Q.% Zang%null%1,    J.% Xu%null%1,    W.-J.% Chen%null%1,    Y.-J.% Li%null%1,    D.-S.% Xie%null%1,    M.-Z.% Zhou%null%1,    J.-Y.% Sun%null%1,    J.-Z.% Chen%null%1,    W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We analyzed the bacterial communities of the nasopharynx in 40 SARS-CoV-2 infected and uninfected patients.
+ All infected patients had a mild COVID-19 disease.
+ We did not find statistically significant differences in either bacterial richness and diversity or composition.
+ These findings suggest a nasopharyngeal microbiota at least early resilient to SARS-CoV-2 infection.
+</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,    Brunella%Posteraro%NULL%1,    Francesca Romana%Ponziani%NULL%1,    Paola%Cattani%NULL%1,    Antonio%Gasbarrini%NULL%0,    Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
   </si>
 </sst>
 </file>
@@ -871,10 +881,10 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>

--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="102">
   <si>
     <t>Doi</t>
   </si>
@@ -424,16 +424,6 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,    H.-C.% Zhang%null%1,    T.% Xu%null%1,    J.% Wu%null%1,    M.% Zhu%null%1,    Y.-Q.% Yu%null%1,    H.-Y.% Zhang%null%1,    Z.% Shen%null%1,    Y.% Li%null%0,    X.% Zhou%null%0,    G.-Q.% Zang%null%1,    J.% Xu%null%1,    W.-J.% Chen%null%1,    Y.-J.% Li%null%1,    D.-S.% Xie%null%1,    M.-Z.% Zhou%null%1,    J.-Y.% Sun%null%1,    J.-Z.% Chen%null%1,    W.-H. % Zhang%null%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We analyzed the bacterial communities of the nasopharynx in 40 SARS-CoV-2 infected and uninfected patients.
- All infected patients had a mild COVID-19 disease.
- We did not find statistically significant differences in either bacterial richness and diversity or composition.
- These findings suggest a nasopharyngeal microbiota at least early resilient to SARS-CoV-2 infection.
-</t>
-  </si>
-  <si>
-    <t>[Flavio%De Maio%NULL%1,    Brunella%Posteraro%NULL%1,    Francesca Romana%Ponziani%NULL%1,    Paola%Cattani%NULL%1,    Antonio%Gasbarrini%NULL%0,    Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
   </si>
 </sst>
 </file>
@@ -881,10 +871,10 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>

--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="118">
   <si>
     <t>Doi</t>
   </si>
@@ -424,6 +424,54 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,    H.-C.% Zhang%null%1,    T.% Xu%null%1,    J.% Wu%null%1,    M.% Zhu%null%1,    Y.-Q.% Yu%null%1,    H.-Y.% Zhang%null%1,    Z.% Shen%null%1,    Y.% Li%null%0,    X.% Zhou%null%0,    G.-Q.% Zang%null%1,    J.% Xu%null%1,    W.-J.% Chen%null%1,    Y.-J.% Li%null%1,    D.-S.% Xie%null%1,    M.-Z.% Zhou%null%1,    J.-Y.% Sun%null%1,    J.-Z.% Chen%null%1,    W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,    Yanfei%Chen%NULL%1,    Zhengjie%Wu%NULL%1,    Yunbo%Chen%NULL%1,    Hainv%Gao%NULL%1,    Longxian%Lv%NULL%1,    Feifei%Guo%NULL%1,    Xuewu%Zhang%NULL%1,    Rui%Luo%NULL%1,    Chenjie%Huang%NULL%1,    Haifeng%Lu%NULL%1,    Beiwen%Zheng%NULL%1,    Jiaying%Zhang%NULL%1,    Ren%Yan%NULL%1,    Hua%Zhang%NULL%0,    Huiyong%Jiang%NULL%1,    Qiaomai%Xu%NULL%1,    Jing%Guo%NULL%1,    Yiwen%Gong%NULL%1,    Lingling%Tang%NULL%1,    Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,    Fen%Zhang%NULL%2,    Grace C.Y.%Lui%NULL%2,    Yun Kit%Yeoh%NULL%1,    Amy Y.L.%Li%NULL%1,    Hui%Zhan%NULL%2,    Yating%Wan%NULL%1,    Arthur C.K.%Chung%NULL%1,    Chun Pan%Cheung%NULL%1,    Nan%Chen%NULL%2,    Christopher K.C.%Lai%NULL%1,    Zigui%Chen%NULL%1,    Eugene Y.K.%Tso%NULL%2,    Kitty S.C.%Fung%NULL%1,    Veronica%Chan%NULL%1,    Lowell%Ling%NULL%1,    Gavin%Joynt%NULL%1,    David S.C.%Hui%NULL%0,    Francis K.L.%Chan%NULL%2,    Paul K.S.%Chan%NULL%2,    Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,    Hui%Zhan%NULL%0,    Fen%Zhang%NULL%0,    Qin%Liu%NULL%0,    Eugene Y.K.%Tso%NULL%0,    Grace C.Y.%Lui%NULL%0,    Nan%Chen%NULL%0,    Amy%Li%NULL%1,    Wenqi%Lu%NULL%1,    Francis K.L.%Chan%NULL%0,    Paul K.S.%Chan%NULL%0,    Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,    Jing-Wen%Ai%NULL%1,    Wenjiao%Yang%NULL%1,    Xian%Zhou%NULL%1,    Fusheng%He%NULL%1,    Shumei%Xie%NULL%1,    Weiqi%Zeng%NULL%1,    Yang%Li%NULL%0,    Yiqi%Yu%NULL%1,    Xuejing%Gou%NULL%1,    Yongjun%Li%NULL%1,    Xiaorui%Wang%NULL%1,    Hang%Su%NULL%1,    Teng%Xu%NULL%2,    Wenhong%Zhang%wenhongzhang_hs@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,    Brunella%Posteraro%NULL%1,    Francesca Romana%Ponziani%NULL%1,    Paola%Cattani%NULL%1,    Antonio%Gasbarrini%NULL%0,    Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,    Weiyong%Liu%NULL%1,    Qi%Zhang%NULL%1,    Ke%Xu%NULL%2,    Ke%Xu%NULL%0,    Guangming%Ye%NULL%1,    Weichen%Wu%NULL%1,    Ziyong%Sun%NULL%0,    Fang%Liu%NULL%0,    Kailang%Wu%NULL%0,    Bo%Zhong%NULL%1,    Yi%Mei%NULL%1,    Wenxia%Zhang%NULL%1,    Yu%Chen%NULL%0,    Yirong%Li%NULL%0,    Yirong%Li%NULL%0,    Mang%Shi%NULL%1,    Ke%Lan%NULL%1,    Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,    Ye-Ming%Wang%NULL%1,    Zhi-Qiang%Wu%NULL%1,    Zi-Chun%Xiang%NULL%1,    Li%Guo%NULL%0,    Teng%Xu%NULL%0,    Yong-Zhong%Jiang%NULL%1,    Yan%Xiong%NULL%0,    Yong-Jun%Li%NULL%1,    Xing-Wang%Li%NULL%1,    Hui%Li%NULL%0,    Guo-Hui%Fan%NULL%1,    Xiao-Ying%Gu%NULL%1,    Yan%Xiao%NULL%0,    Hong%Gao%NULL%0,    Jiu-Yang%Xu%NULL%1,    Fan%Yang%NULL%0,    Xin-Ming%Wang%NULL%1,    Chao%Wu%NULL%1,    Lan%Chen%NULL%1,    Yi-Wei%Liu%NULL%1,    Bo%Liu%NULL%0,    Jian%Yang%NULL%1,    Xiao-Rui%Wang%NULL%1,    Jie%Dong%NULL%1,    Li%Li%NULL%0,    Chao-Lin%Huang%NULL%1,    Jian-Ping%Zhao%NULL%1,    Yi%Hu%NULL%0,    Zhen-Shun%Cheng%NULL%1,    Lin-Lin%Liu%NULL%1,    Zhao-Hui%Qian%NULL%1,    Chuan%Qin%NULL%0,    Qi%Jin%NULL%0,    Bin%Cao%NULL%0,    Jian-Wei%Wang%NULL%1,    Xiu-Yuan%Hao%NULL%0,    Xiu-Yuan%Hao%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,    Xiang%Li%NULL%1,    Yong%Gao%NULL%1,    Junjie%Zhou%NULL%1,    Sihua%Wang%NULL%1,    Bo%Huang%NULL%1,    Junhua%Wu%NULL%1,    Qin%Cao%NULL%1,    Yajun%Chen%NULL%1,    Zhenkao%Wang%NULL%1,    Danju%Luo%NULL%1,    Ting%Zhou%NULL%1,    Ruiting%Li%NULL%0,    You%Shang%NULL%0,    Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,    Guorong%Zhang%NULL%1,    Xiaofang%Wang%NULL%1,    Meng%Guo%NULL%1,    Weihong%Zeng%NULL%1,    Zhihao%Xu%NULL%1,    Dan%Cao%NULL%1,    Aijun%Pan%NULL%0,    Yucai%Wang%NULL%1,    Kaiguang%Zhang%NULL%1,    Xiaoling%Ma%NULL%1,    Zhengxu%Chen%NULL%1,    Tengchuan%Jin%NULL%1,    Lianxin%Liu%NULL%0,    Jianping%Weng%NULL%1,    Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,     Y.% Tong%null%1,     G.% Shen%null%1,     A.% Fu%null%1,     Y.% Lai%null%1,     X.% Zhou%null%2,     Y.% Yuan%null%1,     Y.% Wang%null%1,     Y.% Pan%null%1,     Z.% Yu%null%1,     Y.% Li%null%0,     T.% Liu%null%1,     H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,     H.-C.% Zhang%null%1,     T.% Xu%null%1,     J.% Wu%null%1,     M.% Zhu%null%1,     Y.-Q.% Yu%null%1,     H.-Y.% Zhang%null%1,     Z.% Shen%null%1,     Y.% Li%null%0,     X.% Zhou%null%0,     G.-Q.% Zang%null%1,     J.% Xu%null%1,     W.-J.% Chen%null%1,     Y.-J.% Li%null%1,     D.-S.% Xie%null%1,     M.-Z.% Zhou%null%1,     J.-Y.% Sun%null%1,     J.-Z.% Chen%null%1,     W.-H. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -755,6 +803,9 @@
       <c r="H1" t="s">
         <v>27</v>
       </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -770,7 +821,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -780,6 +831,9 @@
       </c>
       <c r="H2" t="s">
         <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3">
@@ -796,7 +850,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -806,6 +860,9 @@
       </c>
       <c r="H3" t="s">
         <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +879,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -832,6 +889,9 @@
       </c>
       <c r="H4" t="s">
         <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5">
@@ -848,7 +908,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -858,6 +918,9 @@
       </c>
       <c r="H5" t="s">
         <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -874,7 +937,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -884,6 +947,9 @@
       </c>
       <c r="H6" t="s">
         <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -900,7 +966,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -910,6 +976,9 @@
       </c>
       <c r="H7" t="s">
         <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -926,7 +995,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -936,6 +1005,9 @@
       </c>
       <c r="H8" t="s">
         <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -952,7 +1024,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -962,6 +1034,9 @@
       </c>
       <c r="H9" t="s">
         <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -978,7 +1053,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -988,6 +1063,9 @@
       </c>
       <c r="H10" t="s">
         <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -1004,16 +1082,19 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
         <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -1030,16 +1111,19 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
         <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1067,6 +1151,9 @@
       <c r="H13" t="s">
         <v>33</v>
       </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -1092,6 +1179,9 @@
       </c>
       <c r="H14" t="s">
         <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="151">
   <si>
     <t>Doi</t>
   </si>
@@ -472,6 +472,105 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,     H.-C.% Zhang%null%1,     T.% Xu%null%1,     J.% Wu%null%1,     M.% Zhu%null%1,     Y.-Q.% Yu%null%1,     H.-Y.% Zhang%null%1,     Z.% Shen%null%1,     Y.% Li%null%0,     X.% Zhou%null%0,     G.-Q.% Zang%null%1,     J.% Xu%null%1,     W.-J.% Chen%null%1,     Y.-J.% Li%null%1,     D.-S.% Xie%null%1,     M.-Z.% Zhou%null%1,     J.-Y.% Sun%null%1,     J.-Z.% Chen%null%1,     W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,     Yanfei%Chen%NULL%1,     Zhengjie%Wu%NULL%1,     Yunbo%Chen%NULL%1,     Hainv%Gao%NULL%1,     Longxian%Lv%NULL%1,     Feifei%Guo%NULL%1,     Xuewu%Zhang%NULL%1,     Rui%Luo%NULL%1,     Chenjie%Huang%NULL%1,     Haifeng%Lu%NULL%1,     Beiwen%Zheng%NULL%1,     Jiaying%Zhang%NULL%1,     Ren%Yan%NULL%1,     Hua%Zhang%NULL%0,     Huiyong%Jiang%NULL%1,     Qiaomai%Xu%NULL%1,     Jing%Guo%NULL%1,     Yiwen%Gong%NULL%1,     Lingling%Tang%NULL%1,     Lanjuan%Li%ljli@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,     Fen%Zhang%NULL%2,     Grace C.Y.%Lui%NULL%2,     Yun Kit%Yeoh%NULL%1,     Amy Y.L.%Li%NULL%1,     Hui%Zhan%NULL%2,     Yating%Wan%NULL%1,     Arthur C.K.%Chung%NULL%1,     Chun Pan%Cheung%NULL%1,     Nan%Chen%NULL%2,     Christopher K.C.%Lai%NULL%1,     Zigui%Chen%NULL%1,     Eugene Y.K.%Tso%NULL%2,     Kitty S.C.%Fung%NULL%1,     Veronica%Chan%NULL%1,     Lowell%Ling%NULL%1,     Gavin%Joynt%NULL%1,     David S.C.%Hui%NULL%0,     Francis K.L.%Chan%NULL%2,     Paul K.S.%Chan%NULL%2,     Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,     Hui%Zhan%NULL%0,     Fen%Zhang%NULL%0,     Qin%Liu%NULL%0,     Eugene Y.K.%Tso%NULL%0,     Grace C.Y.%Lui%NULL%0,     Nan%Chen%NULL%0,     Amy%Li%NULL%1,     Wenqi%Lu%NULL%1,     Francis K.L.%Chan%NULL%0,     Paul K.S.%Chan%NULL%0,     Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,     Jing-Wen%Ai%NULL%1,     Wenjiao%Yang%NULL%1,     Xian%Zhou%NULL%1,     Fusheng%He%NULL%1,     Shumei%Xie%NULL%1,     Weiqi%Zeng%NULL%1,     Yang%Li%NULL%0,     Yiqi%Yu%NULL%1,     Xuejing%Gou%NULL%1,     Yongjun%Li%NULL%1,     Xiaorui%Wang%NULL%1,     Hang%Su%NULL%1,     Teng%Xu%NULL%2,     Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,     Brunella%Posteraro%NULL%1,     Francesca Romana%Ponziani%NULL%1,     Paola%Cattani%NULL%1,     Antonio%Gasbarrini%NULL%0,     Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,     Weiyong%Liu%NULL%0,     Qi%Zhang%NULL%1,     Ke%Xu%NULL%2,     Ke%Xu%NULL%0,     Guangming%Ye%NULL%0,     Weichen%Wu%NULL%1,     Ziyong%Sun%NULL%0,     Fang%Liu%NULL%0,     Kailang%Wu%NULL%0,     Bo%Zhong%NULL%1,     Yi%Mei%NULL%1,     Wenxia%Zhang%NULL%1,     Yu%Chen%NULL%1,     Yirong%Li%NULL%0,     Yirong%Li%NULL%0,     Mang%Shi%NULL%1,     Ke%Lan%NULL%1,     Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,     Ye-Ming%Wang%NULL%1,     Zhi-Qiang%Wu%NULL%1,     Zi-Chun%Xiang%NULL%1,     Li%Guo%NULL%0,     Teng%Xu%NULL%0,     Yong-Zhong%Jiang%NULL%1,     Yan%Xiong%NULL%0,     Yong-Jun%Li%NULL%1,     Xing-Wang%Li%NULL%1,     Hui%Li%NULL%0,     Guo-Hui%Fan%NULL%1,     Xiao-Ying%Gu%NULL%1,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Jiu-Yang%Xu%NULL%1,     Fan%Yang%NULL%0,     Xin-Ming%Wang%NULL%1,     Chao%Wu%NULL%1,     Lan%Chen%NULL%1,     Yi-Wei%Liu%NULL%1,     Bo%Liu%NULL%1,     Jian%Yang%NULL%1,     Xiao-Rui%Wang%NULL%1,     Jie%Dong%NULL%1,     Li%Li%NULL%0,     Chao-Lin%Huang%NULL%1,     Jian-Ping%Zhao%NULL%1,     Yi%Hu%NULL%0,     Zhen-Shun%Cheng%NULL%1,     Lin-Lin%Liu%NULL%1,     Zhao-Hui%Qian%NULL%1,     Chuan%Qin%NULL%0,     Qi%Jin%NULL%0,     Bin%Cao%NULL%0,     Jian-Wei%Wang%NULL%1,     Xiu-Yuan%Hao%NULL%2,     Xiu-Yuan%Hao%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,     Xiang%Li%NULL%1,     Yong%Gao%NULL%1,     Junjie%Zhou%NULL%1,     Sihua%Wang%NULL%1,     Bo%Huang%NULL%1,     Junhua%Wu%NULL%1,     Qin%Cao%NULL%1,     Yajun%Chen%NULL%1,     Zhenkao%Wang%NULL%1,     Danju%Luo%NULL%1,     Ting%Zhou%NULL%1,     Ruiting%Li%NULL%0,     You%Shang%NULL%0,     Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,     Guorong%Zhang%NULL%1,     Xiaofang%Wang%NULL%1,     Meng%Guo%NULL%1,     Weihong%Zeng%NULL%1,     Zhihao%Xu%NULL%1,     Dan%Cao%NULL%1,     Aijun%Pan%NULL%1,     Yucai%Wang%NULL%1,     Kaiguang%Zhang%NULL%1,     Xiaoling%Ma%NULL%1,     Zhengxu%Chen%NULL%1,     Tengchuan%Jin%NULL%1,     Lianxin%Liu%NULL%1,     Jianping%Weng%NULL%1,     Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,      Y.% Tong%null%1,      G.% Shen%null%1,      A.% Fu%null%1,      Y.% Lai%null%1,      X.% Zhou%null%2,      Y.% Yuan%null%1,      Y.% Wang%null%1,      Y.% Pan%null%1,      Z.% Yu%null%1,      Y.% Li%null%2,      T.% Liu%null%1,      H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,      H.-C.% Zhang%null%1,      T.% Xu%null%1,      J.% Wu%null%1,      M.% Zhu%null%1,      Y.-Q.% Yu%null%1,      H.-Y.% Zhang%null%1,      Z.% Shen%null%1,      Y.% Li%null%0,      X.% Zhou%null%0,      G.-Q.% Zang%null%1,      J.% Xu%null%1,      W.-J.% Chen%null%1,      Y.-J.% Li%null%1,      D.-S.% Xie%null%1,      M.-Z.% Zhou%null%1,      J.-Y.% Sun%null%1,      J.-Z.% Chen%null%1,      W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,      Yanfei%Chen%NULL%1,      Zhengjie%Wu%NULL%1,      Yunbo%Chen%NULL%1,      Hainv%Gao%NULL%1,      Longxian%Lv%NULL%1,      Feifei%Guo%NULL%1,      Xuewu%Zhang%NULL%1,      Rui%Luo%NULL%1,      Chenjie%Huang%NULL%1,      Haifeng%Lu%NULL%1,      Beiwen%Zheng%NULL%1,      Jiaying%Zhang%NULL%1,      Ren%Yan%NULL%1,      Hua%Zhang%NULL%0,      Huiyong%Jiang%NULL%1,      Qiaomai%Xu%NULL%1,      Jing%Guo%NULL%1,      Yiwen%Gong%NULL%1,      Lingling%Tang%NULL%1,      Lanjuan%Li%ljli@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,      Fen%Zhang%NULL%2,      Grace C.Y.%Lui%NULL%2,      Yun Kit%Yeoh%NULL%1,      Amy Y.L.%Li%NULL%1,      Hui%Zhan%NULL%2,      Yating%Wan%NULL%1,      Arthur C.K.%Chung%NULL%1,      Chun Pan%Cheung%NULL%1,      Nan%Chen%NULL%2,      Christopher K.C.%Lai%NULL%1,      Zigui%Chen%NULL%1,      Eugene Y.K.%Tso%NULL%2,      Kitty S.C.%Fung%NULL%1,      Veronica%Chan%NULL%1,      Lowell%Ling%NULL%1,      Gavin%Joynt%NULL%1,      David S.C.%Hui%NULL%0,      Francis K.L.%Chan%NULL%2,      Paul K.S.%Chan%NULL%2,      Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,      Hui%Zhan%NULL%0,      Fen%Zhang%NULL%0,      Qin%Liu%NULL%0,      Eugene Y.K.%Tso%NULL%0,      Grace C.Y.%Lui%NULL%0,      Nan%Chen%NULL%0,      Amy%Li%NULL%1,      Wenqi%Lu%NULL%1,      Francis K.L.%Chan%NULL%0,      Paul K.S.%Chan%NULL%0,      Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,      Jing-Wen%Ai%NULL%1,      Wenjiao%Yang%NULL%1,      Xian%Zhou%NULL%1,      Fusheng%He%NULL%1,      Shumei%Xie%NULL%1,      Weiqi%Zeng%NULL%1,      Yang%Li%NULL%0,      Yiqi%Yu%NULL%1,      Xuejing%Gou%NULL%1,      Yongjun%Li%NULL%1,      Xiaorui%Wang%NULL%1,      Hang%Su%NULL%1,      Teng%Xu%NULL%2,      Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,      Brunella%Posteraro%NULL%1,      Francesca Romana%Ponziani%NULL%1,      Paola%Cattani%NULL%1,      Antonio%Gasbarrini%NULL%0,      Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,      Weiyong%Liu%NULL%0,      Qi%Zhang%NULL%1,      Ke%Xu%NULL%2,      Ke%Xu%NULL%0,      Guangming%Ye%NULL%0,      Weichen%Wu%NULL%1,      Ziyong%Sun%NULL%0,      Fang%Liu%NULL%0,      Kailang%Wu%NULL%0,      Bo%Zhong%NULL%1,      Yi%Mei%NULL%1,      Wenxia%Zhang%NULL%1,      Yu%Chen%NULL%1,      Yirong%Li%NULL%0,      Yirong%Li%NULL%0,      Mang%Shi%NULL%1,      Ke%Lan%NULL%1,      Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,      Ye-Ming%Wang%NULL%1,      Zhi-Qiang%Wu%NULL%1,      Zi-Chun%Xiang%NULL%1,      Li%Guo%NULL%0,      Teng%Xu%NULL%0,      Yong-Zhong%Jiang%NULL%1,      Yan%Xiong%NULL%0,      Yong-Jun%Li%NULL%1,      Xing-Wang%Li%NULL%1,      Hui%Li%NULL%0,      Guo-Hui%Fan%NULL%1,      Xiao-Ying%Gu%NULL%1,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Jiu-Yang%Xu%NULL%1,      Fan%Yang%NULL%0,      Xin-Ming%Wang%NULL%1,      Chao%Wu%NULL%1,      Lan%Chen%NULL%1,      Yi-Wei%Liu%NULL%1,      Bo%Liu%NULL%1,      Jian%Yang%NULL%1,      Xiao-Rui%Wang%NULL%1,      Jie%Dong%NULL%1,      Li%Li%NULL%0,      Chao-Lin%Huang%NULL%1,      Jian-Ping%Zhao%NULL%1,      Yi%Hu%NULL%0,      Zhen-Shun%Cheng%NULL%1,      Lin-Lin%Liu%NULL%1,      Zhao-Hui%Qian%NULL%1,      Chuan%Qin%NULL%0,      Qi%Jin%NULL%0,      Bin%Cao%NULL%0,      Jian-Wei%Wang%NULL%1,      Xiu-Yuan%Hao%NULL%2,      Xiu-Yuan%Hao%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,      Xiang%Li%NULL%1,      Yong%Gao%NULL%1,      Junjie%Zhou%NULL%1,      Sihua%Wang%NULL%1,      Bo%Huang%NULL%1,      Junhua%Wu%NULL%1,      Qin%Cao%NULL%1,      Yajun%Chen%NULL%1,      Zhenkao%Wang%NULL%1,      Danju%Luo%NULL%1,      Ting%Zhou%NULL%1,      Ruiting%Li%NULL%0,      You%Shang%NULL%0,      Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,      Guorong%Zhang%NULL%1,      Xiaofang%Wang%NULL%1,      Meng%Guo%NULL%1,      Weihong%Zeng%NULL%1,      Zhihao%Xu%NULL%1,      Dan%Cao%NULL%1,      Aijun%Pan%NULL%1,      Yucai%Wang%NULL%1,      Kaiguang%Zhang%NULL%1,      Xiaoling%Ma%NULL%1,      Zhengxu%Chen%NULL%1,      Tengchuan%Jin%NULL%1,      Lianxin%Liu%NULL%1,      Jianping%Weng%NULL%1,      Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,       Y.% Tong%null%1,       G.% Shen%null%1,       A.% Fu%null%1,       Y.% Lai%null%1,       X.% Zhou%null%2,       Y.% Yuan%null%1,       Y.% Wang%null%1,       Y.% Pan%null%1,       Z.% Yu%null%1,       Y.% Li%null%2,       T.% Liu%null%1,       H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,       H.-C.% Zhang%null%1,       T.% Xu%null%1,       J.% Wu%null%1,       M.% Zhu%null%1,       Y.-Q.% Yu%null%1,       H.-Y.% Zhang%null%1,       Z.% Shen%null%1,       Y.% Li%null%0,       X.% Zhou%null%0,       G.-Q.% Zang%null%1,       J.% Xu%null%1,       W.-J.% Chen%null%1,       Y.-J.% Li%null%1,       D.-S.% Xie%null%1,       M.-Z.% Zhou%null%1,       J.-Y.% Sun%null%1,       J.-Z.% Chen%null%1,       W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,       Yanfei%Chen%NULL%1,       Zhengjie%Wu%NULL%1,       Yunbo%Chen%NULL%1,       Hainv%Gao%NULL%1,       Longxian%Lv%NULL%1,       Feifei%Guo%NULL%1,       Xuewu%Zhang%NULL%1,       Rui%Luo%NULL%1,       Chenjie%Huang%NULL%1,       Haifeng%Lu%NULL%1,       Beiwen%Zheng%NULL%1,       Jiaying%Zhang%NULL%1,       Ren%Yan%NULL%1,       Hua%Zhang%NULL%0,       Huiyong%Jiang%NULL%1,       Qiaomai%Xu%NULL%1,       Jing%Guo%NULL%1,       Yiwen%Gong%NULL%1,       Lingling%Tang%NULL%1,       Lanjuan%Li%ljli@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,       Fen%Zhang%NULL%2,       Grace C.Y.%Lui%NULL%2,       Yun Kit%Yeoh%NULL%1,       Amy Y.L.%Li%NULL%1,       Hui%Zhan%NULL%2,       Yating%Wan%NULL%1,       Arthur C.K.%Chung%NULL%1,       Chun Pan%Cheung%NULL%1,       Nan%Chen%NULL%2,       Christopher K.C.%Lai%NULL%1,       Zigui%Chen%NULL%1,       Eugene Y.K.%Tso%NULL%2,       Kitty S.C.%Fung%NULL%1,       Veronica%Chan%NULL%1,       Lowell%Ling%NULL%1,       Gavin%Joynt%NULL%1,       David S.C.%Hui%NULL%0,       Francis K.L.%Chan%NULL%2,       Paul K.S.%Chan%NULL%2,       Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,       Hui%Zhan%NULL%0,       Fen%Zhang%NULL%0,       Qin%Liu%NULL%0,       Eugene Y.K.%Tso%NULL%0,       Grace C.Y.%Lui%NULL%0,       Nan%Chen%NULL%0,       Amy%Li%NULL%1,       Wenqi%Lu%NULL%1,       Francis K.L.%Chan%NULL%0,       Paul K.S.%Chan%NULL%0,       Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,       Jing-Wen%Ai%NULL%1,       Wenjiao%Yang%NULL%1,       Xian%Zhou%NULL%1,       Fusheng%He%NULL%1,       Shumei%Xie%NULL%1,       Weiqi%Zeng%NULL%1,       Yang%Li%NULL%0,       Yiqi%Yu%NULL%1,       Xuejing%Gou%NULL%1,       Yongjun%Li%NULL%1,       Xiaorui%Wang%NULL%1,       Hang%Su%NULL%1,       Teng%Xu%NULL%2,       Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,       Brunella%Posteraro%NULL%1,       Francesca Romana%Ponziani%NULL%1,       Paola%Cattani%NULL%1,       Antonio%Gasbarrini%NULL%0,       Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,       Weiyong%Liu%NULL%0,       Qi%Zhang%NULL%1,       Ke%Xu%NULL%2,       Ke%Xu%NULL%0,       Guangming%Ye%NULL%0,       Weichen%Wu%NULL%1,       Ziyong%Sun%NULL%0,       Fang%Liu%NULL%0,       Kailang%Wu%NULL%0,       Bo%Zhong%NULL%1,       Yi%Mei%NULL%1,       Wenxia%Zhang%NULL%1,       Yu%Chen%NULL%1,       Yirong%Li%NULL%0,       Yirong%Li%NULL%0,       Mang%Shi%NULL%1,       Ke%Lan%NULL%1,       Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,       Ye-Ming%Wang%NULL%1,       Zhi-Qiang%Wu%NULL%1,       Zi-Chun%Xiang%NULL%1,       Li%Guo%NULL%0,       Teng%Xu%NULL%0,       Yong-Zhong%Jiang%NULL%1,       Yan%Xiong%NULL%0,       Yong-Jun%Li%NULL%1,       Xing-Wang%Li%NULL%1,       Hui%Li%NULL%0,       Guo-Hui%Fan%NULL%1,       Xiao-Ying%Gu%NULL%1,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Jiu-Yang%Xu%NULL%1,       Fan%Yang%NULL%0,       Xin-Ming%Wang%NULL%1,       Chao%Wu%NULL%1,       Lan%Chen%NULL%1,       Yi-Wei%Liu%NULL%1,       Bo%Liu%NULL%1,       Jian%Yang%NULL%1,       Xiao-Rui%Wang%NULL%1,       Jie%Dong%NULL%1,       Li%Li%NULL%0,       Chao-Lin%Huang%NULL%1,       Jian-Ping%Zhao%NULL%1,       Yi%Hu%NULL%0,       Zhen-Shun%Cheng%NULL%1,       Lin-Lin%Liu%NULL%1,       Zhao-Hui%Qian%NULL%1,       Chuan%Qin%NULL%0,       Qi%Jin%NULL%0,       Bin%Cao%NULL%0,       Jian-Wei%Wang%NULL%1,       Xiu-Yuan%Hao%NULL%2,       Xiu-Yuan%Hao%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,       Xiang%Li%NULL%1,       Yong%Gao%NULL%1,       Junjie%Zhou%NULL%1,       Sihua%Wang%NULL%1,       Bo%Huang%NULL%1,       Junhua%Wu%NULL%1,       Qin%Cao%NULL%1,       Yajun%Chen%NULL%1,       Zhenkao%Wang%NULL%1,       Danju%Luo%NULL%1,       Ting%Zhou%NULL%1,       Ruiting%Li%NULL%0,       You%Shang%NULL%0,       Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,       Guorong%Zhang%NULL%1,       Xiaofang%Wang%NULL%1,       Meng%Guo%NULL%1,       Weihong%Zeng%NULL%1,       Zhihao%Xu%NULL%1,       Dan%Cao%NULL%1,       Aijun%Pan%NULL%1,       Yucai%Wang%NULL%1,       Kaiguang%Zhang%NULL%1,       Xiaoling%Ma%NULL%1,       Zhengxu%Chen%NULL%1,       Tengchuan%Jin%NULL%1,       Lianxin%Liu%NULL%1,       Jianping%Weng%NULL%1,       Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,        Y.% Tong%null%1,        G.% Shen%null%1,        A.% Fu%null%1,        Y.% Lai%null%1,        X.% Zhou%null%2,        Y.% Yuan%null%1,        Y.% Wang%null%1,        Y.% Pan%null%1,        Z.% Yu%null%1,        Y.% Li%null%2,        T.% Liu%null%1,        H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,        H.-C.% Zhang%null%1,        T.% Xu%null%1,        J.% Wu%null%1,        M.% Zhu%null%1,        Y.-Q.% Yu%null%1,        H.-Y.% Zhang%null%1,        Z.% Shen%null%1,        Y.% Li%null%0,        X.% Zhou%null%0,        G.-Q.% Zang%null%1,        J.% Xu%null%1,        W.-J.% Chen%null%1,        Y.-J.% Li%null%1,        D.-S.% Xie%null%1,        M.-Z.% Zhou%null%1,        J.-Y.% Sun%null%1,        J.-Z.% Chen%null%1,        W.-H. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -821,7 +920,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -850,7 +949,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -879,7 +978,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -908,7 +1007,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -937,7 +1036,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -966,7 +1065,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -995,7 +1094,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1024,7 +1123,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1053,7 +1152,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1082,7 +1181,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -1111,7 +1210,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>

--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="173">
   <si>
     <t>Doi</t>
   </si>
@@ -571,6 +571,72 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,        H.-C.% Zhang%null%1,        T.% Xu%null%1,        J.% Wu%null%1,        M.% Zhu%null%1,        Y.-Q.% Yu%null%1,        H.-Y.% Zhang%null%1,        Z.% Shen%null%1,        Y.% Li%null%0,        X.% Zhou%null%0,        G.-Q.% Zang%null%1,        J.% Xu%null%1,        W.-J.% Chen%null%1,        Y.-J.% Li%null%1,        D.-S.% Xie%null%1,        M.-Z.% Zhou%null%1,        J.-Y.% Sun%null%1,        J.-Z.% Chen%null%1,        W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,        Yanfei%Chen%NULL%1,        Zhengjie%Wu%NULL%1,        Yunbo%Chen%NULL%1,        Hainv%Gao%NULL%1,        Longxian%Lv%NULL%1,        Feifei%Guo%NULL%1,        Xuewu%Zhang%NULL%1,        Rui%Luo%NULL%1,        Chenjie%Huang%NULL%1,        Haifeng%Lu%NULL%1,        Beiwen%Zheng%NULL%1,        Jiaying%Zhang%NULL%1,        Ren%Yan%NULL%1,        Hua%Zhang%NULL%0,        Huiyong%Jiang%NULL%1,        Qiaomai%Xu%NULL%1,        Jing%Guo%NULL%1,        Yiwen%Gong%NULL%1,        Lingling%Tang%NULL%1,        Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,        Fen%Zhang%NULL%2,        Grace C.Y.%Lui%NULL%2,        Yun Kit%Yeoh%NULL%1,        Amy Y.L.%Li%NULL%1,        Hui%Zhan%NULL%2,        Yating%Wan%NULL%1,        Arthur C.K.%Chung%NULL%1,        Chun Pan%Cheung%NULL%1,        Nan%Chen%NULL%2,        Christopher K.C.%Lai%NULL%1,        Zigui%Chen%NULL%1,        Eugene Y.K.%Tso%NULL%2,        Kitty S.C.%Fung%NULL%1,        Veronica%Chan%NULL%1,        Lowell%Ling%NULL%1,        Gavin%Joynt%NULL%1,        David S.C.%Hui%NULL%0,        Francis K.L.%Chan%NULL%2,        Paul K.S.%Chan%NULL%2,        Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,        Hui%Zhan%NULL%0,        Fen%Zhang%NULL%0,        Qin%Liu%NULL%0,        Eugene Y.K.%Tso%NULL%0,        Grace C.Y.%Lui%NULL%0,        Nan%Chen%NULL%0,        Amy%Li%NULL%1,        Wenqi%Lu%NULL%1,        Francis K.L.%Chan%NULL%0,        Paul K.S.%Chan%NULL%0,        Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,        Jing-Wen%Ai%NULL%1,        Wenjiao%Yang%NULL%1,        Xian%Zhou%NULL%1,        Fusheng%He%NULL%1,        Shumei%Xie%NULL%1,        Weiqi%Zeng%NULL%1,        Yang%Li%NULL%0,        Yiqi%Yu%NULL%1,        Xuejing%Gou%NULL%1,        Yongjun%Li%NULL%1,        Xiaorui%Wang%NULL%1,        Hang%Su%NULL%1,        Teng%Xu%NULL%2,        Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,        Brunella%Posteraro%NULL%1,        Francesca Romana%Ponziani%NULL%1,        Paola%Cattani%NULL%1,        Antonio%Gasbarrini%NULL%0,        Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%2,        Weiyong%Liu%NULL%0,        Qi%Zhang%NULL%1,        Ke%Xu%NULL%2,        Ke%Xu%NULL%0,        Guangming%Ye%NULL%0,        Weichen%Wu%NULL%1,        Ziyong%Sun%NULL%1,        Fang%Liu%NULL%0,        Kailang%Wu%NULL%0,        Bo%Zhong%NULL%1,        Yi%Mei%NULL%1,        Wenxia%Zhang%NULL%1,        Yu%Chen%NULL%0,        Yirong%Li%NULL%0,        Yirong%Li%NULL%0,        Mang%Shi%NULL%1,        Ke%Lan%NULL%1,        Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,        Ye-Ming%Wang%NULL%1,        Zhi-Qiang%Wu%NULL%1,        Zi-Chun%Xiang%NULL%1,        Li%Guo%NULL%0,        Teng%Xu%NULL%0,        Yong-Zhong%Jiang%NULL%1,        Yan%Xiong%NULL%0,        Yong-Jun%Li%NULL%1,        Xing-Wang%Li%NULL%1,        Hui%Li%NULL%0,        Guo-Hui%Fan%NULL%1,        Xiao-Ying%Gu%NULL%1,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Jiu-Yang%Xu%NULL%1,        Fan%Yang%NULL%0,        Xin-Ming%Wang%NULL%1,        Chao%Wu%NULL%1,        Lan%Chen%NULL%1,        Yi-Wei%Liu%NULL%1,        Bo%Liu%NULL%0,        Jian%Yang%NULL%1,        Xiao-Rui%Wang%NULL%1,        Jie%Dong%NULL%1,        Li%Li%NULL%0,        Chao-Lin%Huang%NULL%1,        Jian-Ping%Zhao%NULL%1,        Yi%Hu%NULL%0,        Zhen-Shun%Cheng%NULL%1,        Lin-Lin%Liu%NULL%1,        Zhao-Hui%Qian%NULL%1,        Chuan%Qin%NULL%0,        Qi%Jin%NULL%0,        Bin%Cao%NULL%0,        Jian-Wei%Wang%NULL%1,        Xiu-Yuan%Hao%NULL%0,        Xiu-Yuan%Hao%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,        Xiang%Li%NULL%1,        Yong%Gao%NULL%1,        Junjie%Zhou%NULL%1,        Sihua%Wang%NULL%1,        Bo%Huang%NULL%1,        Junhua%Wu%NULL%1,        Qin%Cao%NULL%1,        Yajun%Chen%NULL%1,        Zhenkao%Wang%NULL%1,        Danju%Luo%NULL%1,        Ting%Zhou%NULL%1,        Ruiting%Li%NULL%0,        You%Shang%NULL%0,        Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,        Guorong%Zhang%NULL%1,        Xiaofang%Wang%NULL%1,        Meng%Guo%NULL%1,        Weihong%Zeng%NULL%1,        Zhihao%Xu%NULL%1,        Dan%Cao%NULL%1,        Aijun%Pan%NULL%0,        Yucai%Wang%NULL%1,        Kaiguang%Zhang%NULL%1,        Xiaoling%Ma%NULL%1,        Zhengxu%Chen%NULL%1,        Tengchuan%Jin%NULL%1,        Lianxin%Liu%NULL%0,        Jianping%Weng%NULL%1,        Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,         Y.% Tong%null%1,         G.% Shen%null%1,         A.% Fu%null%1,         Y.% Lai%null%1,         X.% Zhou%null%2,         Y.% Yuan%null%1,         Y.% Wang%null%1,         Y.% Pan%null%1,         Z.% Yu%null%1,         Y.% Li%null%0,         T.% Liu%null%1,         H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,         H.-C.% Zhang%null%1,         T.% Xu%null%1,         J.% Wu%null%1,         M.% Zhu%null%1,         Y.-Q.% Yu%null%1,         H.-Y.% Zhang%null%1,         Z.% Shen%null%1,         Y.% Li%null%0,         X.% Zhou%null%0,         G.-Q.% Zang%null%1,         J.% Xu%null%1,         W.-J.% Chen%null%1,         Y.-J.% Li%null%1,         D.-S.% Xie%null%1,         M.-Z.% Zhou%null%1,         J.-Y.% Sun%null%1,         J.-Z.% Chen%null%1,         W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,         Yanfei%Chen%NULL%1,         Zhengjie%Wu%NULL%1,         Yunbo%Chen%NULL%1,         Hainv%Gao%NULL%1,         Longxian%Lv%NULL%1,         Feifei%Guo%NULL%1,         Xuewu%Zhang%NULL%1,         Rui%Luo%NULL%1,         Chenjie%Huang%NULL%1,         Haifeng%Lu%NULL%1,         Beiwen%Zheng%NULL%1,         Jiaying%Zhang%NULL%1,         Ren%Yan%NULL%1,         Hua%Zhang%NULL%0,         Huiyong%Jiang%NULL%1,         Qiaomai%Xu%NULL%1,         Jing%Guo%NULL%1,         Yiwen%Gong%NULL%1,         Lingling%Tang%NULL%1,         Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,         Fen%Zhang%NULL%2,         Grace C.Y.%Lui%NULL%2,         Yun Kit%Yeoh%NULL%1,         Amy Y.L.%Li%NULL%1,         Hui%Zhan%NULL%2,         Yating%Wan%NULL%1,         Arthur C.K.%Chung%NULL%1,         Chun Pan%Cheung%NULL%1,         Nan%Chen%NULL%2,         Christopher K.C.%Lai%NULL%1,         Zigui%Chen%NULL%1,         Eugene Y.K.%Tso%NULL%2,         Kitty S.C.%Fung%NULL%1,         Veronica%Chan%NULL%1,         Lowell%Ling%NULL%1,         Gavin%Joynt%NULL%1,         David S.C.%Hui%NULL%0,         Francis K.L.%Chan%NULL%2,         Paul K.S.%Chan%NULL%2,         Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,         Hui%Zhan%NULL%0,         Fen%Zhang%NULL%0,         Qin%Liu%NULL%0,         Eugene Y.K.%Tso%NULL%0,         Grace C.Y.%Lui%NULL%0,         Nan%Chen%NULL%0,         Amy%Li%NULL%1,         Wenqi%Lu%NULL%1,         Francis K.L.%Chan%NULL%0,         Paul K.S.%Chan%NULL%0,         Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,         Jing-Wen%Ai%NULL%1,         Wenjiao%Yang%NULL%1,         Xian%Zhou%NULL%1,         Fusheng%He%NULL%1,         Shumei%Xie%NULL%1,         Weiqi%Zeng%NULL%1,         Yang%Li%NULL%0,         Yiqi%Yu%NULL%1,         Xuejing%Gou%NULL%1,         Yongjun%Li%NULL%1,         Xiaorui%Wang%NULL%1,         Hang%Su%NULL%1,         Teng%Xu%NULL%2,         Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,         Brunella%Posteraro%NULL%1,         Francesca Romana%Ponziani%NULL%1,         Paola%Cattani%NULL%1,         Antonio%Gasbarrini%NULL%0,         Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,         Weiyong%Liu%NULL%0,         Qi%Zhang%NULL%1,         Ke%Xu%NULL%2,         Ke%Xu%NULL%0,         Guangming%Ye%NULL%0,         Weichen%Wu%NULL%1,         Ziyong%Sun%NULL%1,         Fang%Liu%NULL%0,         Kailang%Wu%NULL%0,         Bo%Zhong%NULL%1,         Yi%Mei%NULL%1,         Wenxia%Zhang%NULL%1,         Yu%Chen%NULL%0,         Yirong%Li%NULL%0,         Yirong%Li%NULL%0,         Mang%Shi%NULL%1,         Ke%Lan%NULL%1,         Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,         Ye-Ming%Wang%NULL%1,         Zhi-Qiang%Wu%NULL%1,         Zi-Chun%Xiang%NULL%1,         Li%Guo%NULL%0,         Teng%Xu%NULL%0,         Yong-Zhong%Jiang%NULL%1,         Yan%Xiong%NULL%0,         Yong-Jun%Li%NULL%1,         Xing-Wang%Li%NULL%1,         Hui%Li%NULL%0,         Guo-Hui%Fan%NULL%1,         Xiao-Ying%Gu%NULL%1,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Jiu-Yang%Xu%NULL%1,         Fan%Yang%NULL%0,         Xin-Ming%Wang%NULL%1,         Chao%Wu%NULL%1,         Lan%Chen%NULL%1,         Yi-Wei%Liu%NULL%1,         Bo%Liu%NULL%0,         Jian%Yang%NULL%1,         Xiao-Rui%Wang%NULL%1,         Jie%Dong%NULL%1,         Li%Li%NULL%0,         Chao-Lin%Huang%NULL%1,         Jian-Ping%Zhao%NULL%1,         Yi%Hu%NULL%0,         Zhen-Shun%Cheng%NULL%1,         Lin-Lin%Liu%NULL%1,         Zhao-Hui%Qian%NULL%1,         Chuan%Qin%NULL%0,         Qi%Jin%NULL%0,         Bin%Cao%NULL%0,         Jian-Wei%Wang%NULL%1,         Xiu-Yuan%Hao%NULL%0,         Xiu-Yuan%Hao%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,         Xiang%Li%NULL%1,         Yong%Gao%NULL%1,         Junjie%Zhou%NULL%1,         Sihua%Wang%NULL%1,         Bo%Huang%NULL%1,         Junhua%Wu%NULL%1,         Qin%Cao%NULL%1,         Yajun%Chen%NULL%1,         Zhenkao%Wang%NULL%1,         Danju%Luo%NULL%1,         Ting%Zhou%NULL%1,         Ruiting%Li%NULL%0,         You%Shang%NULL%0,         Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,         Guorong%Zhang%NULL%1,         Xiaofang%Wang%NULL%1,         Meng%Guo%NULL%1,         Weihong%Zeng%NULL%1,         Zhihao%Xu%NULL%1,         Dan%Cao%NULL%1,         Aijun%Pan%NULL%0,         Yucai%Wang%NULL%1,         Kaiguang%Zhang%NULL%1,         Xiaoling%Ma%NULL%1,         Zhengxu%Chen%NULL%1,         Tengchuan%Jin%NULL%1,         Lianxin%Liu%NULL%0,         Jianping%Weng%NULL%1,         Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,          Y.% Tong%null%1,          G.% Shen%null%1,          A.% Fu%null%1,          Y.% Lai%null%1,          X.% Zhou%null%2,          Y.% Yuan%null%1,          Y.% Wang%null%1,          Y.% Pan%null%1,          Z.% Yu%null%1,          Y.% Li%null%0,          T.% Liu%null%1,          H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,          H.-C.% Zhang%null%1,          T.% Xu%null%1,          J.% Wu%null%1,          M.% Zhu%null%1,          Y.-Q.% Yu%null%1,          H.-Y.% Zhang%null%1,          Z.% Shen%null%1,          Y.% Li%null%0,          X.% Zhou%null%0,          G.-Q.% Zang%null%1,          J.% Xu%null%1,          W.-J.% Chen%null%1,          Y.-J.% Li%null%1,          D.-S.% Xie%null%1,          M.-Z.% Zhou%null%1,          J.-Y.% Sun%null%1,          J.-Z.% Chen%null%1,          W.-H. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -920,7 +986,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -949,7 +1015,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -978,7 +1044,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1007,7 +1073,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1036,7 +1102,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1065,7 +1131,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1094,7 +1160,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1123,7 +1189,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1152,7 +1218,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1181,7 +1247,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -1210,7 +1276,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>

--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="195">
   <si>
     <t>Doi</t>
   </si>
@@ -637,6 +637,72 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,          H.-C.% Zhang%null%1,          T.% Xu%null%1,          J.% Wu%null%1,          M.% Zhu%null%1,          Y.-Q.% Yu%null%1,          H.-Y.% Zhang%null%1,          Z.% Shen%null%1,          Y.% Li%null%0,          X.% Zhou%null%0,          G.-Q.% Zang%null%1,          J.% Xu%null%1,          W.-J.% Chen%null%1,          Y.-J.% Li%null%1,          D.-S.% Xie%null%1,          M.-Z.% Zhou%null%1,          J.-Y.% Sun%null%1,          J.-Z.% Chen%null%1,          W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,          Yanfei%Chen%NULL%1,          Zhengjie%Wu%NULL%1,          Yunbo%Chen%NULL%1,          Hainv%Gao%NULL%1,          Longxian%Lv%NULL%1,          Feifei%Guo%NULL%1,          Xuewu%Zhang%NULL%1,          Rui%Luo%NULL%1,          Chenjie%Huang%NULL%1,          Haifeng%Lu%NULL%1,          Beiwen%Zheng%NULL%1,          Jiaying%Zhang%NULL%1,          Ren%Yan%NULL%1,          Hua%Zhang%NULL%0,          Huiyong%Jiang%NULL%1,          Qiaomai%Xu%NULL%1,          Jing%Guo%NULL%1,          Yiwen%Gong%NULL%1,          Lingling%Tang%NULL%1,          Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,          Fen%Zhang%NULL%2,          Grace C.Y.%Lui%NULL%2,          Yun Kit%Yeoh%NULL%1,          Amy Y.L.%Li%NULL%1,          Hui%Zhan%NULL%2,          Yating%Wan%NULL%1,          Arthur C.K.%Chung%NULL%1,          Chun Pan%Cheung%NULL%1,          Nan%Chen%NULL%2,          Christopher K.C.%Lai%NULL%1,          Zigui%Chen%NULL%1,          Eugene Y.K.%Tso%NULL%2,          Kitty S.C.%Fung%NULL%1,          Veronica%Chan%NULL%1,          Lowell%Ling%NULL%1,          Gavin%Joynt%NULL%1,          David S.C.%Hui%NULL%0,          Francis K.L.%Chan%NULL%2,          Paul K.S.%Chan%NULL%2,          Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,          Hui%Zhan%NULL%0,          Fen%Zhang%NULL%0,          Qin%Liu%NULL%0,          Eugene Y.K.%Tso%NULL%0,          Grace C.Y.%Lui%NULL%0,          Nan%Chen%NULL%0,          Amy%Li%NULL%1,          Wenqi%Lu%NULL%1,          Francis K.L.%Chan%NULL%0,          Paul K.S.%Chan%NULL%0,          Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,          Jing-Wen%Ai%NULL%1,          Wenjiao%Yang%NULL%1,          Xian%Zhou%NULL%1,          Fusheng%He%NULL%1,          Shumei%Xie%NULL%1,          Weiqi%Zeng%NULL%1,          Yang%Li%NULL%0,          Yiqi%Yu%NULL%1,          Xuejing%Gou%NULL%1,          Yongjun%Li%NULL%1,          Xiaorui%Wang%NULL%1,          Hang%Su%NULL%1,          Teng%Xu%NULL%2,          Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,          Brunella%Posteraro%NULL%1,          Francesca Romana%Ponziani%NULL%1,          Paola%Cattani%NULL%1,          Antonio%Gasbarrini%NULL%0,          Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,          Weiyong%Liu%NULL%0,          Qi%Zhang%NULL%1,          Ke%Xu%NULL%2,          Ke%Xu%NULL%0,          Guangming%Ye%NULL%0,          Weichen%Wu%NULL%1,          Ziyong%Sun%NULL%1,          Fang%Liu%NULL%0,          Kailang%Wu%NULL%0,          Bo%Zhong%NULL%1,          Yi%Mei%NULL%1,          Wenxia%Zhang%NULL%1,          Yu%Chen%NULL%0,          Yirong%Li%NULL%0,          Yirong%Li%NULL%0,          Mang%Shi%NULL%1,          Ke%Lan%NULL%1,          Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,          Ye-Ming%Wang%NULL%1,          Zhi-Qiang%Wu%NULL%1,          Zi-Chun%Xiang%NULL%1,          Li%Guo%NULL%0,          Teng%Xu%NULL%0,          Yong-Zhong%Jiang%NULL%1,          Yan%Xiong%NULL%0,          Yong-Jun%Li%NULL%1,          Xing-Wang%Li%NULL%1,          Hui%Li%NULL%0,          Guo-Hui%Fan%NULL%1,          Xiao-Ying%Gu%NULL%1,          Yan%Xiao%NULL%0,          Hong%Gao%NULL%0,          Jiu-Yang%Xu%NULL%1,          Fan%Yang%NULL%0,          Xin-Ming%Wang%NULL%1,          Chao%Wu%NULL%1,          Lan%Chen%NULL%1,          Yi-Wei%Liu%NULL%1,          Bo%Liu%NULL%0,          Jian%Yang%NULL%1,          Xiao-Rui%Wang%NULL%1,          Jie%Dong%NULL%1,          Li%Li%NULL%0,          Chao-Lin%Huang%NULL%1,          Jian-Ping%Zhao%NULL%1,          Yi%Hu%NULL%0,          Zhen-Shun%Cheng%NULL%1,          Lin-Lin%Liu%NULL%1,          Zhao-Hui%Qian%NULL%1,          Chuan%Qin%NULL%0,          Qi%Jin%NULL%0,          Bin%Cao%NULL%0,          Jian-Wei%Wang%NULL%1,          Xiu-Yuan%Hao%NULL%0,          Xiu-Yuan%Hao%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,          Xiang%Li%NULL%1,          Yong%Gao%NULL%1,          Junjie%Zhou%NULL%1,          Sihua%Wang%NULL%1,          Bo%Huang%NULL%1,          Junhua%Wu%NULL%1,          Qin%Cao%NULL%1,          Yajun%Chen%NULL%1,          Zhenkao%Wang%NULL%1,          Danju%Luo%NULL%1,          Ting%Zhou%NULL%1,          Ruiting%Li%NULL%0,          You%Shang%NULL%0,          Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,          Guorong%Zhang%NULL%1,          Xiaofang%Wang%NULL%1,          Meng%Guo%NULL%1,          Weihong%Zeng%NULL%1,          Zhihao%Xu%NULL%1,          Dan%Cao%NULL%1,          Aijun%Pan%NULL%0,          Yucai%Wang%NULL%1,          Kaiguang%Zhang%NULL%1,          Xiaoling%Ma%NULL%1,          Zhengxu%Chen%NULL%1,          Tengchuan%Jin%NULL%1,          Lianxin%Liu%NULL%0,          Jianping%Weng%NULL%1,          Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,           Y.% Tong%null%1,           G.% Shen%null%1,           A.% Fu%null%1,           Y.% Lai%null%1,           X.% Zhou%null%2,           Y.% Yuan%null%1,           Y.% Wang%null%1,           Y.% Pan%null%1,           Z.% Yu%null%1,           Y.% Li%null%0,           T.% Liu%null%1,           H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,           H.-C.% Zhang%null%1,           T.% Xu%null%1,           J.% Wu%null%1,           M.% Zhu%null%1,           Y.-Q.% Yu%null%1,           H.-Y.% Zhang%null%1,           Z.% Shen%null%1,           Y.% Li%null%0,           X.% Zhou%null%0,           G.-Q.% Zang%null%1,           J.% Xu%null%1,           W.-J.% Chen%null%1,           Y.-J.% Li%null%1,           D.-S.% Xie%null%1,           M.-Z.% Zhou%null%1,           J.-Y.% Sun%null%1,           J.-Z.% Chen%null%1,           W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,           Yanfei%Chen%NULL%1,           Zhengjie%Wu%NULL%1,           Yunbo%Chen%NULL%1,           Hainv%Gao%NULL%1,           Longxian%Lv%NULL%1,           Feifei%Guo%NULL%1,           Xuewu%Zhang%NULL%1,           Rui%Luo%NULL%1,           Chenjie%Huang%NULL%1,           Haifeng%Lu%NULL%1,           Beiwen%Zheng%NULL%1,           Jiaying%Zhang%NULL%1,           Ren%Yan%NULL%1,           Hua%Zhang%NULL%0,           Huiyong%Jiang%NULL%1,           Qiaomai%Xu%NULL%1,           Jing%Guo%NULL%1,           Yiwen%Gong%NULL%1,           Lingling%Tang%NULL%1,           Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,           Fen%Zhang%NULL%2,           Grace C.Y.%Lui%NULL%2,           Yun Kit%Yeoh%NULL%1,           Amy Y.L.%Li%NULL%1,           Hui%Zhan%NULL%2,           Yating%Wan%NULL%1,           Arthur C.K.%Chung%NULL%1,           Chun Pan%Cheung%NULL%1,           Nan%Chen%NULL%2,           Christopher K.C.%Lai%NULL%1,           Zigui%Chen%NULL%1,           Eugene Y.K.%Tso%NULL%2,           Kitty S.C.%Fung%NULL%1,           Veronica%Chan%NULL%1,           Lowell%Ling%NULL%1,           Gavin%Joynt%NULL%1,           David S.C.%Hui%NULL%0,           Francis K.L.%Chan%NULL%2,           Paul K.S.%Chan%NULL%2,           Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,           Hui%Zhan%NULL%0,           Fen%Zhang%NULL%0,           Qin%Liu%NULL%0,           Eugene Y.K.%Tso%NULL%0,           Grace C.Y.%Lui%NULL%0,           Nan%Chen%NULL%0,           Amy%Li%NULL%1,           Wenqi%Lu%NULL%1,           Francis K.L.%Chan%NULL%0,           Paul K.S.%Chan%NULL%0,           Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,           Jing-Wen%Ai%NULL%1,           Wenjiao%Yang%NULL%1,           Xian%Zhou%NULL%1,           Fusheng%He%NULL%1,           Shumei%Xie%NULL%1,           Weiqi%Zeng%NULL%1,           Yang%Li%NULL%0,           Yiqi%Yu%NULL%1,           Xuejing%Gou%NULL%1,           Yongjun%Li%NULL%1,           Xiaorui%Wang%NULL%1,           Hang%Su%NULL%1,           Teng%Xu%NULL%2,           Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,           Brunella%Posteraro%NULL%1,           Francesca Romana%Ponziani%NULL%1,           Paola%Cattani%NULL%1,           Antonio%Gasbarrini%NULL%0,           Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,           Weiyong%Liu%NULL%0,           Qi%Zhang%NULL%1,           Ke%Xu%NULL%2,           Ke%Xu%NULL%0,           Guangming%Ye%NULL%0,           Weichen%Wu%NULL%1,           Ziyong%Sun%NULL%1,           Fang%Liu%NULL%0,           Kailang%Wu%NULL%0,           Bo%Zhong%NULL%1,           Yi%Mei%NULL%1,           Wenxia%Zhang%NULL%1,           Yu%Chen%NULL%0,           Yirong%Li%NULL%0,           Yirong%Li%NULL%0,           Mang%Shi%NULL%1,           Ke%Lan%NULL%1,           Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,           Ye-Ming%Wang%NULL%1,           Zhi-Qiang%Wu%NULL%1,           Zi-Chun%Xiang%NULL%1,           Li%Guo%NULL%0,           Teng%Xu%NULL%0,           Yong-Zhong%Jiang%NULL%1,           Yan%Xiong%NULL%0,           Yong-Jun%Li%NULL%1,           Xing-Wang%Li%NULL%1,           Hui%Li%NULL%0,           Guo-Hui%Fan%NULL%1,           Xiao-Ying%Gu%NULL%1,           Yan%Xiao%NULL%0,           Hong%Gao%NULL%0,           Jiu-Yang%Xu%NULL%1,           Fan%Yang%NULL%0,           Xin-Ming%Wang%NULL%1,           Chao%Wu%NULL%1,           Lan%Chen%NULL%1,           Yi-Wei%Liu%NULL%1,           Bo%Liu%NULL%0,           Jian%Yang%NULL%1,           Xiao-Rui%Wang%NULL%1,           Jie%Dong%NULL%1,           Li%Li%NULL%0,           Chao-Lin%Huang%NULL%1,           Jian-Ping%Zhao%NULL%1,           Yi%Hu%NULL%0,           Zhen-Shun%Cheng%NULL%1,           Lin-Lin%Liu%NULL%1,           Zhao-Hui%Qian%NULL%1,           Chuan%Qin%NULL%0,           Qi%Jin%NULL%0,           Bin%Cao%NULL%0,           Jian-Wei%Wang%NULL%1,           Xiu-Yuan%Hao%NULL%0,           Xiu-Yuan%Hao%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,           Xiang%Li%NULL%1,           Yong%Gao%NULL%1,           Junjie%Zhou%NULL%1,           Sihua%Wang%NULL%1,           Bo%Huang%NULL%1,           Junhua%Wu%NULL%1,           Qin%Cao%NULL%1,           Yajun%Chen%NULL%1,           Zhenkao%Wang%NULL%1,           Danju%Luo%NULL%1,           Ting%Zhou%NULL%1,           Ruiting%Li%NULL%0,           You%Shang%NULL%0,           Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,           Guorong%Zhang%NULL%1,           Xiaofang%Wang%NULL%1,           Meng%Guo%NULL%1,           Weihong%Zeng%NULL%1,           Zhihao%Xu%NULL%1,           Dan%Cao%NULL%1,           Aijun%Pan%NULL%0,           Yucai%Wang%NULL%1,           Kaiguang%Zhang%NULL%1,           Xiaoling%Ma%NULL%1,           Zhengxu%Chen%NULL%1,           Tengchuan%Jin%NULL%1,           Lianxin%Liu%NULL%0,           Jianping%Weng%NULL%1,           Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,            Y.% Tong%null%1,            G.% Shen%null%1,            A.% Fu%null%1,            Y.% Lai%null%1,            X.% Zhou%null%2,            Y.% Yuan%null%1,            Y.% Wang%null%1,            Y.% Pan%null%1,            Z.% Yu%null%1,            Y.% Li%null%0,            T.% Liu%null%1,            H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,            H.-C.% Zhang%null%1,            T.% Xu%null%1,            J.% Wu%null%1,            M.% Zhu%null%1,            Y.-Q.% Yu%null%1,            H.-Y.% Zhang%null%1,            Z.% Shen%null%1,            Y.% Li%null%0,            X.% Zhou%null%0,            G.-Q.% Zang%null%1,            J.% Xu%null%1,            W.-J.% Chen%null%1,            Y.-J.% Li%null%1,            D.-S.% Xie%null%1,            M.-Z.% Zhou%null%1,            J.-Y.% Sun%null%1,            J.-Z.% Chen%null%1,            W.-H. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1052,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1015,7 +1081,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1044,7 +1110,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1073,7 +1139,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1102,7 +1168,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1131,7 +1197,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1160,7 +1226,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1189,7 +1255,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1218,7 +1284,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1247,7 +1313,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -1276,7 +1342,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>

--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="218">
   <si>
     <t>Doi</t>
   </si>
@@ -703,6 +703,79 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,            H.-C.% Zhang%null%1,            T.% Xu%null%1,            J.% Wu%null%1,            M.% Zhu%null%1,            Y.-Q.% Yu%null%1,            H.-Y.% Zhang%null%1,            Z.% Shen%null%1,            Y.% Li%null%0,            X.% Zhou%null%0,            G.-Q.% Zang%null%1,            J.% Xu%null%1,            W.-J.% Chen%null%1,            Y.-J.% Li%null%1,            D.-S.% Xie%null%1,            M.-Z.% Zhou%null%1,            J.-Y.% Sun%null%1,            J.-Z.% Chen%null%1,            W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,            Yanfei%Chen%NULL%1,            Zhengjie%Wu%NULL%1,            Yunbo%Chen%NULL%1,            Hainv%Gao%NULL%1,            Longxian%Lv%NULL%1,            Feifei%Guo%NULL%1,            Xuewu%Zhang%NULL%1,            Rui%Luo%NULL%1,            Chenjie%Huang%NULL%1,            Haifeng%Lu%NULL%1,            Beiwen%Zheng%NULL%1,            Jiaying%Zhang%NULL%1,            Ren%Yan%NULL%1,            Hua%Zhang%NULL%0,            Huiyong%Jiang%NULL%1,            Qiaomai%Xu%NULL%1,            Jing%Guo%NULL%1,            Yiwen%Gong%NULL%1,            Lingling%Tang%NULL%1,            Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,            Fen%Zhang%NULL%2,            Grace C.Y.%Lui%NULL%2,            Yun Kit%Yeoh%NULL%1,            Amy Y.L.%Li%NULL%1,            Hui%Zhan%NULL%2,            Yating%Wan%NULL%1,            Arthur C.K.%Chung%NULL%1,            Chun Pan%Cheung%NULL%1,            Nan%Chen%NULL%2,            Christopher K.C.%Lai%NULL%1,            Zigui%Chen%NULL%1,            Eugene Y.K.%Tso%NULL%2,            Kitty S.C.%Fung%NULL%1,            Veronica%Chan%NULL%1,            Lowell%Ling%NULL%1,            Gavin%Joynt%NULL%1,            David S.C.%Hui%NULL%0,            Francis K.L.%Chan%NULL%2,            Paul K.S.%Chan%NULL%2,            Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,            Hui%Zhan%NULL%0,            Fen%Zhang%NULL%0,            Qin%Liu%NULL%0,            Eugene Y.K.%Tso%NULL%0,            Grace C.Y.%Lui%NULL%0,            Nan%Chen%NULL%0,            Amy%Li%NULL%1,            Wenqi%Lu%NULL%1,            Francis K.L.%Chan%NULL%0,            Paul K.S.%Chan%NULL%0,            Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,            Jing-Wen%Ai%NULL%1,            Wenjiao%Yang%NULL%1,            Xian%Zhou%NULL%1,            Fusheng%He%NULL%1,            Shumei%Xie%NULL%1,            Weiqi%Zeng%NULL%1,            Yang%Li%NULL%0,            Yiqi%Yu%NULL%1,            Xuejing%Gou%NULL%1,            Yongjun%Li%NULL%1,            Xiaorui%Wang%NULL%1,            Hang%Su%NULL%1,            Teng%Xu%NULL%2,            Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We analyzed the bacterial communities of the nasopharynx in 40 SARS-CoV-2 infected and uninfected patients.
+ All infected patients had a mild COVID-19 disease.
+ We did not find statistically significant differences in either bacterial richness and diversity or composition.
+ These findings suggest a nasopharyngeal microbiota at least early resilient to SARS-CoV-2 infection.
+</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,            Brunella%Posteraro%NULL%1,            Francesca Romana%Ponziani%NULL%1,            Paola%Cattani%NULL%1,            Antonio%Gasbarrini%NULL%0,            Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,            Weiyong%Liu%NULL%0,            Qi%Zhang%NULL%1,            Ke%Xu%NULL%2,            Ke%Xu%NULL%0,            Guangming%Ye%NULL%0,            Weichen%Wu%NULL%1,            Ziyong%Sun%NULL%1,            Fang%Liu%NULL%0,            Kailang%Wu%NULL%0,            Bo%Zhong%NULL%1,            Yi%Mei%NULL%1,            Wenxia%Zhang%NULL%1,            Yu%Chen%NULL%0,            Yirong%Li%NULL%0,            Yirong%Li%NULL%0,            Mang%Shi%NULL%1,            Ke%Lan%NULL%1,            Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,            Ye-Ming%Wang%NULL%1,            Zhi-Qiang%Wu%NULL%1,            Zi-Chun%Xiang%NULL%1,            Li%Guo%NULL%0,            Teng%Xu%NULL%0,            Yong-Zhong%Jiang%NULL%1,            Yan%Xiong%NULL%0,            Yong-Jun%Li%NULL%1,            Xing-Wang%Li%NULL%1,            Hui%Li%NULL%0,            Guo-Hui%Fan%NULL%1,            Xiao-Ying%Gu%NULL%1,            Yan%Xiao%NULL%0,            Hong%Gao%NULL%0,            Jiu-Yang%Xu%NULL%1,            Fan%Yang%NULL%0,            Xin-Ming%Wang%NULL%1,            Chao%Wu%NULL%1,            Lan%Chen%NULL%1,            Yi-Wei%Liu%NULL%1,            Bo%Liu%NULL%0,            Jian%Yang%NULL%1,            Xiao-Rui%Wang%NULL%1,            Jie%Dong%NULL%1,            Li%Li%NULL%0,            Chao-Lin%Huang%NULL%1,            Jian-Ping%Zhao%NULL%1,            Yi%Hu%NULL%0,            Zhen-Shun%Cheng%NULL%1,            Lin-Lin%Liu%NULL%1,            Zhao-Hui%Qian%NULL%1,            Chuan%Qin%NULL%0,            Qi%Jin%NULL%0,            Bin%Cao%NULL%0,            Jian-Wei%Wang%NULL%1,            Xiu-Yuan%Hao%NULL%0,            Xiu-Yuan%Hao%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,            Xiang%Li%NULL%1,            Yong%Gao%NULL%1,            Junjie%Zhou%NULL%1,            Sihua%Wang%NULL%1,            Bo%Huang%NULL%1,            Junhua%Wu%NULL%1,            Qin%Cao%NULL%1,            Yajun%Chen%NULL%1,            Zhenkao%Wang%NULL%1,            Danju%Luo%NULL%1,            Ting%Zhou%NULL%1,            Ruiting%Li%NULL%0,            You%Shang%NULL%0,            Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,            Guorong%Zhang%NULL%1,            Xiaofang%Wang%NULL%1,            Meng%Guo%NULL%1,            Weihong%Zeng%NULL%1,            Zhihao%Xu%NULL%1,            Dan%Cao%NULL%1,            Aijun%Pan%NULL%0,            Yucai%Wang%NULL%1,            Kaiguang%Zhang%NULL%1,            Xiaoling%Ma%NULL%1,            Zhengxu%Chen%NULL%1,            Tengchuan%Jin%NULL%1,            Lianxin%Liu%NULL%0,            Jianping%Weng%NULL%1,            Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,             Y.% Tong%null%1,             G.% Shen%null%1,             A.% Fu%null%1,             Y.% Lai%null%1,             X.% Zhou%null%2,             Y.% Yuan%null%1,             Y.% Wang%null%1,             Y.% Pan%null%1,             Z.% Yu%null%1,             Y.% Li%null%0,             T.% Liu%null%1,             H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,             H.-C.% Zhang%null%1,             T.% Xu%null%1,             J.% Wu%null%1,             M.% Zhu%null%1,             Y.-Q.% Yu%null%1,             H.-Y.% Zhang%null%1,             Z.% Shen%null%1,             Y.% Li%null%0,             X.% Zhou%null%0,             G.-Q.% Zang%null%1,             J.% Xu%null%1,             W.-J.% Chen%null%1,             Y.-J.% Li%null%1,             D.-S.% Xie%null%1,             M.-Z.% Zhou%null%1,             J.-Y.% Sun%null%1,             J.-Z.% Chen%null%1,             W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,             Yanfei%Chen%NULL%1,             Zhengjie%Wu%NULL%1,             Yunbo%Chen%NULL%1,             Hainv%Gao%NULL%1,             Longxian%Lv%NULL%1,             Feifei%Guo%NULL%1,             Xuewu%Zhang%NULL%1,             Rui%Luo%NULL%1,             Chenjie%Huang%NULL%1,             Haifeng%Lu%NULL%1,             Beiwen%Zheng%NULL%1,             Jiaying%Zhang%NULL%1,             Ren%Yan%NULL%1,             Hua%Zhang%NULL%0,             Huiyong%Jiang%NULL%1,             Qiaomai%Xu%NULL%1,             Jing%Guo%NULL%1,             Yiwen%Gong%NULL%1,             Lingling%Tang%NULL%1,             Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,             Fen%Zhang%NULL%2,             Grace C.Y.%Lui%NULL%2,             Yun Kit%Yeoh%NULL%1,             Amy Y.L.%Li%NULL%1,             Hui%Zhan%NULL%2,             Yating%Wan%NULL%1,             Arthur C.K.%Chung%NULL%1,             Chun Pan%Cheung%NULL%1,             Nan%Chen%NULL%2,             Christopher K.C.%Lai%NULL%1,             Zigui%Chen%NULL%1,             Eugene Y.K.%Tso%NULL%2,             Kitty S.C.%Fung%NULL%1,             Veronica%Chan%NULL%1,             Lowell%Ling%NULL%1,             Gavin%Joynt%NULL%1,             David S.C.%Hui%NULL%0,             Francis K.L.%Chan%NULL%2,             Paul K.S.%Chan%NULL%2,             Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,             Hui%Zhan%NULL%0,             Fen%Zhang%NULL%0,             Qin%Liu%NULL%0,             Eugene Y.K.%Tso%NULL%0,             Grace C.Y.%Lui%NULL%0,             Nan%Chen%NULL%0,             Amy%Li%NULL%1,             Wenqi%Lu%NULL%1,             Francis K.L.%Chan%NULL%0,             Paul K.S.%Chan%NULL%0,             Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,             Jing-Wen%Ai%NULL%1,             Wenjiao%Yang%NULL%1,             Xian%Zhou%NULL%1,             Fusheng%He%NULL%1,             Shumei%Xie%NULL%1,             Weiqi%Zeng%NULL%1,             Yang%Li%NULL%0,             Yiqi%Yu%NULL%1,             Xuejing%Gou%NULL%1,             Yongjun%Li%NULL%1,             Xiaorui%Wang%NULL%1,             Hang%Su%NULL%1,             Teng%Xu%NULL%2,             Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,             Brunella%Posteraro%NULL%1,             Francesca Romana%Ponziani%NULL%1,             Paola%Cattani%NULL%1,             Antonio%Gasbarrini%NULL%0,             Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,             Weiyong%Liu%NULL%0,             Qi%Zhang%NULL%1,             Ke%Xu%NULL%2,             Ke%Xu%NULL%0,             Guangming%Ye%NULL%0,             Weichen%Wu%NULL%1,             Ziyong%Sun%NULL%1,             Fang%Liu%NULL%0,             Kailang%Wu%NULL%0,             Bo%Zhong%NULL%1,             Yi%Mei%NULL%1,             Wenxia%Zhang%NULL%1,             Yu%Chen%NULL%0,             Yirong%Li%NULL%0,             Yirong%Li%NULL%0,             Mang%Shi%NULL%1,             Ke%Lan%NULL%1,             Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,             Ye-Ming%Wang%NULL%1,             Zhi-Qiang%Wu%NULL%1,             Zi-Chun%Xiang%NULL%1,             Li%Guo%NULL%0,             Teng%Xu%NULL%0,             Yong-Zhong%Jiang%NULL%1,             Yan%Xiong%NULL%0,             Yong-Jun%Li%NULL%1,             Xing-Wang%Li%NULL%1,             Hui%Li%NULL%0,             Guo-Hui%Fan%NULL%1,             Xiao-Ying%Gu%NULL%1,             Yan%Xiao%NULL%0,             Hong%Gao%NULL%0,             Jiu-Yang%Xu%NULL%1,             Fan%Yang%NULL%0,             Xin-Ming%Wang%NULL%1,             Chao%Wu%NULL%1,             Lan%Chen%NULL%1,             Yi-Wei%Liu%NULL%1,             Bo%Liu%NULL%0,             Jian%Yang%NULL%1,             Xiao-Rui%Wang%NULL%1,             Jie%Dong%NULL%1,             Li%Li%NULL%0,             Chao-Lin%Huang%NULL%1,             Jian-Ping%Zhao%NULL%1,             Yi%Hu%NULL%0,             Zhen-Shun%Cheng%NULL%1,             Lin-Lin%Liu%NULL%1,             Zhao-Hui%Qian%NULL%1,             Chuan%Qin%NULL%0,             Qi%Jin%NULL%0,             Bin%Cao%NULL%0,             Jian-Wei%Wang%NULL%1,             Xiu-Yuan%Hao%NULL%0,             Xiu-Yuan%Hao%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,             Xiang%Li%NULL%1,             Yong%Gao%NULL%1,             Junjie%Zhou%NULL%1,             Sihua%Wang%NULL%1,             Bo%Huang%NULL%1,             Junhua%Wu%NULL%1,             Qin%Cao%NULL%1,             Yajun%Chen%NULL%1,             Zhenkao%Wang%NULL%1,             Danju%Luo%NULL%1,             Ting%Zhou%NULL%1,             Ruiting%Li%NULL%0,             You%Shang%NULL%0,             Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,             Guorong%Zhang%NULL%1,             Xiaofang%Wang%NULL%1,             Meng%Guo%NULL%1,             Weihong%Zeng%NULL%1,             Zhihao%Xu%NULL%1,             Dan%Cao%NULL%1,             Aijun%Pan%NULL%0,             Yucai%Wang%NULL%1,             Kaiguang%Zhang%NULL%1,             Xiaoling%Ma%NULL%1,             Zhengxu%Chen%NULL%1,             Tengchuan%Jin%NULL%1,             Lianxin%Liu%NULL%0,             Jianping%Weng%NULL%1,             Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,              Y.% Tong%null%1,              G.% Shen%null%1,              A.% Fu%null%1,              Y.% Lai%null%1,              X.% Zhou%null%2,              Y.% Yuan%null%1,              Y.% Wang%null%1,              Y.% Pan%null%1,              Z.% Yu%null%1,              Y.% Li%null%0,              T.% Liu%null%1,              H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,              H.-C.% Zhang%null%1,              T.% Xu%null%1,              J.% Wu%null%1,              M.% Zhu%null%1,              Y.-Q.% Yu%null%1,              H.-Y.% Zhang%null%1,              Z.% Shen%null%1,              Y.% Li%null%0,              X.% Zhou%null%0,              G.-Q.% Zang%null%1,              J.% Xu%null%1,              W.-J.% Chen%null%1,              Y.-J.% Li%null%1,              D.-S.% Xie%null%1,              M.-Z.% Zhou%null%1,              J.-Y.% Sun%null%1,              J.-Z.% Chen%null%1,              W.-H. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1125,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1081,7 +1154,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1110,7 +1183,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1139,7 +1212,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1165,10 +1238,10 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1197,7 +1270,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1226,7 +1299,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1255,7 +1328,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1284,7 +1357,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1313,7 +1386,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -1342,7 +1415,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>

--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="230">
   <si>
     <t>Doi</t>
   </si>
@@ -776,6 +776,42 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,              H.-C.% Zhang%null%1,              T.% Xu%null%1,              J.% Wu%null%1,              M.% Zhu%null%1,              Y.-Q.% Yu%null%1,              H.-Y.% Zhang%null%1,              Z.% Shen%null%1,              Y.% Li%null%0,              X.% Zhou%null%0,              G.-Q.% Zang%null%1,              J.% Xu%null%1,              W.-J.% Chen%null%1,              Y.-J.% Li%null%1,              D.-S.% Xie%null%1,              M.-Z.% Zhou%null%1,              J.-Y.% Sun%null%1,              J.-Z.% Chen%null%1,              W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,              Yanfei%Chen%NULL%1,              Zhengjie%Wu%NULL%1,              Yunbo%Chen%NULL%1,              Hainv%Gao%NULL%1,              Longxian%Lv%NULL%1,              Feifei%Guo%NULL%1,              Xuewu%Zhang%NULL%1,              Rui%Luo%NULL%1,              Chenjie%Huang%NULL%1,              Haifeng%Lu%NULL%1,              Beiwen%Zheng%NULL%1,              Jiaying%Zhang%NULL%1,              Ren%Yan%NULL%1,              Hua%Zhang%NULL%0,              Huiyong%Jiang%NULL%1,              Qiaomai%Xu%NULL%1,              Jing%Guo%NULL%1,              Yiwen%Gong%NULL%1,              Lingling%Tang%NULL%1,              Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,              Fen%Zhang%NULL%2,              Grace C.Y.%Lui%NULL%2,              Yun Kit%Yeoh%NULL%1,              Amy Y.L.%Li%NULL%1,              Hui%Zhan%NULL%2,              Yating%Wan%NULL%1,              Arthur C.K.%Chung%NULL%1,              Chun Pan%Cheung%NULL%1,              Nan%Chen%NULL%2,              Christopher K.C.%Lai%NULL%1,              Zigui%Chen%NULL%1,              Eugene Y.K.%Tso%NULL%2,              Kitty S.C.%Fung%NULL%1,              Veronica%Chan%NULL%1,              Lowell%Ling%NULL%1,              Gavin%Joynt%NULL%1,              David S.C.%Hui%NULL%0,              Francis K.L.%Chan%NULL%2,              Paul K.S.%Chan%NULL%2,              Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,              Hui%Zhan%NULL%0,              Fen%Zhang%NULL%0,              Qin%Liu%NULL%0,              Eugene Y.K.%Tso%NULL%0,              Grace C.Y.%Lui%NULL%0,              Nan%Chen%NULL%0,              Amy%Li%NULL%1,              Wenqi%Lu%NULL%1,              Francis K.L.%Chan%NULL%0,              Paul K.S.%Chan%NULL%0,              Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,              Jing-Wen%Ai%NULL%1,              Wenjiao%Yang%NULL%1,              Xian%Zhou%NULL%1,              Fusheng%He%NULL%1,              Shumei%Xie%NULL%1,              Weiqi%Zeng%NULL%1,              Yang%Li%NULL%0,              Yiqi%Yu%NULL%1,              Xuejing%Gou%NULL%1,              Yongjun%Li%NULL%1,              Xiaorui%Wang%NULL%1,              Hang%Su%NULL%1,              Teng%Xu%NULL%2,              Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,              Brunella%Posteraro%NULL%1,              Francesca Romana%Ponziani%NULL%1,              Paola%Cattani%NULL%1,              Antonio%Gasbarrini%NULL%0,              Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,              Weiyong%Liu%NULL%0,              Qi%Zhang%NULL%1,              Ke%Xu%NULL%2,              Ke%Xu%NULL%0,              Guangming%Ye%NULL%0,              Weichen%Wu%NULL%1,              Ziyong%Sun%NULL%1,              Fang%Liu%NULL%0,              Kailang%Wu%NULL%0,              Bo%Zhong%NULL%1,              Yi%Mei%NULL%1,              Wenxia%Zhang%NULL%1,              Yu%Chen%NULL%0,              Yirong%Li%NULL%0,              Yirong%Li%NULL%0,              Mang%Shi%NULL%1,              Ke%Lan%NULL%1,              Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,              Ye-Ming%Wang%NULL%1,              Zhi-Qiang%Wu%NULL%1,              Zi-Chun%Xiang%NULL%1,              Li%Guo%NULL%0,              Teng%Xu%NULL%0,              Yong-Zhong%Jiang%NULL%1,              Yan%Xiong%NULL%0,              Yong-Jun%Li%NULL%1,              Xing-Wang%Li%NULL%1,              Hui%Li%NULL%0,              Guo-Hui%Fan%NULL%1,              Xiao-Ying%Gu%NULL%1,              Yan%Xiao%NULL%0,              Hong%Gao%NULL%0,              Jiu-Yang%Xu%NULL%1,              Fan%Yang%NULL%0,              Xin-Ming%Wang%NULL%1,              Chao%Wu%NULL%1,              Lan%Chen%NULL%1,              Yi-Wei%Liu%NULL%1,              Bo%Liu%NULL%0,              Jian%Yang%NULL%1,              Xiao-Rui%Wang%NULL%1,              Jie%Dong%NULL%1,              Li%Li%NULL%0,              Chao-Lin%Huang%NULL%1,              Jian-Ping%Zhao%NULL%1,              Yi%Hu%NULL%0,              Zhen-Shun%Cheng%NULL%1,              Lin-Lin%Liu%NULL%1,              Zhao-Hui%Qian%NULL%1,              Chuan%Qin%NULL%0,              Qi%Jin%NULL%0,              Bin%Cao%NULL%0,              Jian-Wei%Wang%NULL%1,              Xiu-Yuan%Hao%NULL%0,              Xiu-Yuan%Hao%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,              Xiang%Li%NULL%1,              Yong%Gao%NULL%1,              Junjie%Zhou%NULL%1,              Sihua%Wang%NULL%1,              Bo%Huang%NULL%1,              Junhua%Wu%NULL%1,              Qin%Cao%NULL%1,              Yajun%Chen%NULL%1,              Zhenkao%Wang%NULL%1,              Danju%Luo%NULL%1,              Ting%Zhou%NULL%1,              Ruiting%Li%NULL%0,              You%Shang%NULL%0,              Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,              Guorong%Zhang%NULL%1,              Xiaofang%Wang%NULL%1,              Meng%Guo%NULL%1,              Weihong%Zeng%NULL%1,              Zhihao%Xu%NULL%1,              Dan%Cao%NULL%1,              Aijun%Pan%NULL%0,              Yucai%Wang%NULL%1,              Kaiguang%Zhang%NULL%1,              Xiaoling%Ma%NULL%1,              Zhengxu%Chen%NULL%1,              Tengchuan%Jin%NULL%1,              Lianxin%Liu%NULL%0,              Jianping%Weng%NULL%1,              Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,               Y.% Tong%null%1,               G.% Shen%null%1,               A.% Fu%null%1,               Y.% Lai%null%1,               X.% Zhou%null%2,               Y.% Yuan%null%1,               Y.% Wang%null%1,               Y.% Pan%null%1,               Z.% Yu%null%1,               Y.% Li%null%0,               T.% Liu%null%1,               H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,               H.-C.% Zhang%null%1,               T.% Xu%null%1,               J.% Wu%null%1,               M.% Zhu%null%1,               Y.-Q.% Yu%null%1,               H.-Y.% Zhang%null%1,               Z.% Shen%null%1,               Y.% Li%null%0,               X.% Zhou%null%0,               G.-Q.% Zang%null%1,               J.% Xu%null%1,               W.-J.% Chen%null%1,               Y.-J.% Li%null%1,               D.-S.% Xie%null%1,               M.-Z.% Zhou%null%1,               J.-Y.% Sun%null%1,               J.-Z.% Chen%null%1,               W.-H. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1161,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1154,7 +1190,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1183,7 +1219,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1212,7 +1248,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1241,7 +1277,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1270,7 +1306,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1299,7 +1335,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1328,7 +1364,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1357,7 +1393,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1386,13 +1422,13 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
         <v>75</v>
@@ -1415,13 +1451,13 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="H12" t="s">
         <v>79</v>

--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="241">
   <si>
     <t>Doi</t>
   </si>
@@ -812,6 +812,39 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,               H.-C.% Zhang%null%1,               T.% Xu%null%1,               J.% Wu%null%1,               M.% Zhu%null%1,               Y.-Q.% Yu%null%1,               H.-Y.% Zhang%null%1,               Z.% Shen%null%1,               Y.% Li%null%0,               X.% Zhou%null%0,               G.-Q.% Zang%null%1,               J.% Xu%null%1,               W.-J.% Chen%null%1,               Y.-J.% Li%null%1,               D.-S.% Xie%null%1,               M.-Z.% Zhou%null%1,               J.-Y.% Sun%null%1,               J.-Z.% Chen%null%1,               W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,               Yanfei%Chen%NULL%1,               Zhengjie%Wu%NULL%1,               Yunbo%Chen%NULL%1,               Hainv%Gao%NULL%1,               Longxian%Lv%NULL%1,               Feifei%Guo%NULL%1,               Xuewu%Zhang%NULL%1,               Rui%Luo%NULL%1,               Chenjie%Huang%NULL%1,               Haifeng%Lu%NULL%1,               Beiwen%Zheng%NULL%1,               Jiaying%Zhang%NULL%1,               Ren%Yan%NULL%1,               Hua%Zhang%NULL%0,               Huiyong%Jiang%NULL%1,               Qiaomai%Xu%NULL%1,               Jing%Guo%NULL%1,               Yiwen%Gong%NULL%1,               Lingling%Tang%NULL%1,               Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,               Fen%Zhang%NULL%2,               Grace C.Y.%Lui%NULL%2,               Yun Kit%Yeoh%NULL%1,               Amy Y.L.%Li%NULL%1,               Hui%Zhan%NULL%2,               Yating%Wan%NULL%1,               Arthur C.K.%Chung%NULL%1,               Chun Pan%Cheung%NULL%1,               Nan%Chen%NULL%2,               Christopher K.C.%Lai%NULL%1,               Zigui%Chen%NULL%1,               Eugene Y.K.%Tso%NULL%2,               Kitty S.C.%Fung%NULL%1,               Veronica%Chan%NULL%1,               Lowell%Ling%NULL%1,               Gavin%Joynt%NULL%1,               David S.C.%Hui%NULL%0,               Francis K.L.%Chan%NULL%2,               Paul K.S.%Chan%NULL%2,               Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,               Hui%Zhan%NULL%0,               Fen%Zhang%NULL%0,               Qin%Liu%NULL%0,               Eugene Y.K.%Tso%NULL%0,               Grace C.Y.%Lui%NULL%0,               Nan%Chen%NULL%0,               Amy%Li%NULL%1,               Wenqi%Lu%NULL%1,               Francis K.L.%Chan%NULL%0,               Paul K.S.%Chan%NULL%0,               Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,               Jing-Wen%Ai%NULL%1,               Wenjiao%Yang%NULL%1,               Xian%Zhou%NULL%1,               Fusheng%He%NULL%1,               Shumei%Xie%NULL%1,               Weiqi%Zeng%NULL%1,               Yang%Li%NULL%0,               Yiqi%Yu%NULL%1,               Xuejing%Gou%NULL%1,               Yongjun%Li%NULL%1,               Xiaorui%Wang%NULL%1,               Hang%Su%NULL%1,               Teng%Xu%NULL%2,               Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,               Brunella%Posteraro%NULL%1,               Francesca Romana%Ponziani%NULL%1,               Paola%Cattani%NULL%1,               Antonio%Gasbarrini%NULL%0,               Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,               Weiyong%Liu%NULL%0,               Qi%Zhang%NULL%1,               Ke%Xu%NULL%2,               Ke%Xu%NULL%0,               Guangming%Ye%NULL%0,               Weichen%Wu%NULL%1,               Ziyong%Sun%NULL%1,               Fang%Liu%NULL%0,               Kailang%Wu%NULL%0,               Bo%Zhong%NULL%1,               Yi%Mei%NULL%1,               Wenxia%Zhang%NULL%1,               Yu%Chen%NULL%0,               Yirong%Li%NULL%0,               Yirong%Li%NULL%0,               Mang%Shi%NULL%1,               Ke%Lan%NULL%1,               Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,               Ye-Ming%Wang%NULL%1,               Zhi-Qiang%Wu%NULL%1,               Zi-Chun%Xiang%NULL%1,               Li%Guo%NULL%0,               Teng%Xu%NULL%0,               Yong-Zhong%Jiang%NULL%1,               Yan%Xiong%NULL%0,               Yong-Jun%Li%NULL%1,               Xing-Wang%Li%NULL%1,               Hui%Li%NULL%0,               Guo-Hui%Fan%NULL%1,               Xiao-Ying%Gu%NULL%1,               Yan%Xiao%NULL%0,               Hong%Gao%NULL%0,               Jiu-Yang%Xu%NULL%1,               Fan%Yang%NULL%0,               Xin-Ming%Wang%NULL%1,               Chao%Wu%NULL%1,               Lan%Chen%NULL%1,               Yi-Wei%Liu%NULL%1,               Bo%Liu%NULL%0,               Jian%Yang%NULL%1,               Xiao-Rui%Wang%NULL%1,               Jie%Dong%NULL%1,               Li%Li%NULL%0,               Chao-Lin%Huang%NULL%1,               Jian-Ping%Zhao%NULL%1,               Yi%Hu%NULL%0,               Zhen-Shun%Cheng%NULL%1,               Lin-Lin%Liu%NULL%1,               Zhao-Hui%Qian%NULL%1,               Chuan%Qin%NULL%0,               Qi%Jin%NULL%0,               Bin%Cao%NULL%0,               Jian-Wei%Wang%NULL%1,               Xiu-Yuan%Hao%NULL%0,               Xiu-Yuan%Hao%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,               Xiang%Li%NULL%1,               Yong%Gao%NULL%1,               Junjie%Zhou%NULL%1,               Sihua%Wang%NULL%1,               Bo%Huang%NULL%1,               Junhua%Wu%NULL%1,               Qin%Cao%NULL%1,               Yajun%Chen%NULL%1,               Zhenkao%Wang%NULL%1,               Danju%Luo%NULL%1,               Ting%Zhou%NULL%1,               Ruiting%Li%NULL%0,               You%Shang%NULL%0,               Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,               Guorong%Zhang%NULL%1,               Xiaofang%Wang%NULL%1,               Meng%Guo%NULL%1,               Weihong%Zeng%NULL%1,               Zhihao%Xu%NULL%1,               Dan%Cao%NULL%1,               Aijun%Pan%NULL%0,               Yucai%Wang%NULL%1,               Kaiguang%Zhang%NULL%1,               Xiaoling%Ma%NULL%1,               Zhengxu%Chen%NULL%1,               Tengchuan%Jin%NULL%1,               Lianxin%Liu%NULL%0,               Jianping%Weng%NULL%1,               Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,                Y.% Tong%null%1,                G.% Shen%null%1,                A.% Fu%null%1,                Y.% Lai%null%1,                X.% Zhou%null%2,                Y.% Yuan%null%1,                Y.% Wang%null%1,                Y.% Pan%null%1,                Z.% Yu%null%1,                Y.% Li%null%0,                T.% Liu%null%1,                H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,                H.-C.% Zhang%null%1,                T.% Xu%null%1,                J.% Wu%null%1,                M.% Zhu%null%1,                Y.-Q.% Yu%null%1,                H.-Y.% Zhang%null%1,                Z.% Shen%null%1,                Y.% Li%null%0,                X.% Zhou%null%0,                G.-Q.% Zang%null%1,                J.% Xu%null%1,                W.-J.% Chen%null%1,                Y.-J.% Li%null%1,                D.-S.% Xie%null%1,                M.-Z.% Zhou%null%1,                J.-Y.% Sun%null%1,                J.-Z.% Chen%null%1,                W.-H. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1194,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1190,7 +1223,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1219,7 +1252,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1248,7 +1281,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1277,7 +1310,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1306,7 +1339,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1335,7 +1368,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1364,7 +1397,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1393,7 +1426,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1422,7 +1455,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1451,7 +1484,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>

--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="263">
   <si>
     <t>Doi</t>
   </si>
@@ -845,6 +845,72 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,                H.-C.% Zhang%null%1,                T.% Xu%null%1,                J.% Wu%null%1,                M.% Zhu%null%1,                Y.-Q.% Yu%null%1,                H.-Y.% Zhang%null%1,                Z.% Shen%null%1,                Y.% Li%null%0,                X.% Zhou%null%0,                G.-Q.% Zang%null%1,                J.% Xu%null%1,                W.-J.% Chen%null%1,                Y.-J.% Li%null%1,                D.-S.% Xie%null%1,                M.-Z.% Zhou%null%1,                J.-Y.% Sun%null%1,                J.-Z.% Chen%null%1,                W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,                Yanfei%Chen%NULL%1,                Zhengjie%Wu%NULL%1,                Yunbo%Chen%NULL%1,                Hainv%Gao%NULL%1,                Longxian%Lv%NULL%1,                Feifei%Guo%NULL%1,                Xuewu%Zhang%NULL%1,                Rui%Luo%NULL%1,                Chenjie%Huang%NULL%1,                Haifeng%Lu%NULL%1,                Beiwen%Zheng%NULL%1,                Jiaying%Zhang%NULL%1,                Ren%Yan%NULL%1,                Hua%Zhang%NULL%0,                Huiyong%Jiang%NULL%1,                Qiaomai%Xu%NULL%1,                Jing%Guo%NULL%1,                Yiwen%Gong%NULL%1,                Lingling%Tang%NULL%1,                Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,                Fen%Zhang%NULL%2,                Grace C.Y.%Lui%NULL%2,                Yun Kit%Yeoh%NULL%1,                Amy Y.L.%Li%NULL%1,                Hui%Zhan%NULL%2,                Yating%Wan%NULL%1,                Arthur C.K.%Chung%NULL%1,                Chun Pan%Cheung%NULL%1,                Nan%Chen%NULL%2,                Christopher K.C.%Lai%NULL%1,                Zigui%Chen%NULL%1,                Eugene Y.K.%Tso%NULL%2,                Kitty S.C.%Fung%NULL%1,                Veronica%Chan%NULL%1,                Lowell%Ling%NULL%1,                Gavin%Joynt%NULL%1,                David S.C.%Hui%NULL%0,                Francis K.L.%Chan%NULL%2,                Paul K.S.%Chan%NULL%2,                Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,                Hui%Zhan%NULL%0,                Fen%Zhang%NULL%0,                Qin%Liu%NULL%0,                Eugene Y.K.%Tso%NULL%0,                Grace C.Y.%Lui%NULL%0,                Nan%Chen%NULL%0,                Amy%Li%NULL%1,                Wenqi%Lu%NULL%1,                Francis K.L.%Chan%NULL%0,                Paul K.S.%Chan%NULL%0,                Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,                Jing-Wen%Ai%NULL%1,                Wenjiao%Yang%NULL%1,                Xian%Zhou%NULL%1,                Fusheng%He%NULL%1,                Shumei%Xie%NULL%1,                Weiqi%Zeng%NULL%1,                Yang%Li%NULL%0,                Yiqi%Yu%NULL%1,                Xuejing%Gou%NULL%1,                Yongjun%Li%NULL%1,                Xiaorui%Wang%NULL%1,                Hang%Su%NULL%1,                Teng%Xu%NULL%2,                Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,                Brunella%Posteraro%NULL%1,                Francesca Romana%Ponziani%NULL%1,                Paola%Cattani%NULL%1,                Antonio%Gasbarrini%NULL%0,                Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,                Weiyong%Liu%NULL%0,                Qi%Zhang%NULL%1,                Ke%Xu%NULL%2,                Ke%Xu%NULL%0,                Guangming%Ye%NULL%0,                Weichen%Wu%NULL%1,                Ziyong%Sun%NULL%1,                Fang%Liu%NULL%0,                Kailang%Wu%NULL%0,                Bo%Zhong%NULL%1,                Yi%Mei%NULL%1,                Wenxia%Zhang%NULL%1,                Yu%Chen%NULL%0,                Yirong%Li%NULL%0,                Yirong%Li%NULL%0,                Mang%Shi%NULL%1,                Ke%Lan%NULL%1,                Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                Ye-Ming%Wang%NULL%1,                Zhi-Qiang%Wu%NULL%1,                Zi-Chun%Xiang%NULL%1,                Li%Guo%NULL%0,                Teng%Xu%NULL%0,                Yong-Zhong%Jiang%NULL%1,                Yan%Xiong%NULL%0,                Yong-Jun%Li%NULL%1,                Xing-Wang%Li%NULL%1,                Hui%Li%NULL%0,                Guo-Hui%Fan%NULL%1,                Xiao-Ying%Gu%NULL%1,                Yan%Xiao%NULL%0,                Hong%Gao%NULL%0,                Jiu-Yang%Xu%NULL%1,                Fan%Yang%NULL%0,                Xin-Ming%Wang%NULL%1,                Chao%Wu%NULL%1,                Lan%Chen%NULL%1,                Yi-Wei%Liu%NULL%1,                Bo%Liu%NULL%0,                Jian%Yang%NULL%1,                Xiao-Rui%Wang%NULL%1,                Jie%Dong%NULL%1,                Li%Li%NULL%0,                Chao-Lin%Huang%NULL%1,                Jian-Ping%Zhao%NULL%1,                Yi%Hu%NULL%0,                Zhen-Shun%Cheng%NULL%1,                Lin-Lin%Liu%NULL%1,                Zhao-Hui%Qian%NULL%1,                Chuan%Qin%NULL%0,                Qi%Jin%NULL%0,                Bin%Cao%NULL%0,                Jian-Wei%Wang%NULL%1,                Xiu-Yuan%Hao%NULL%0,                Xiu-Yuan%Hao%NULL%0,                Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,                Xiang%Li%NULL%1,                Yong%Gao%NULL%1,                Junjie%Zhou%NULL%1,                Sihua%Wang%NULL%1,                Bo%Huang%NULL%1,                Junhua%Wu%NULL%1,                Qin%Cao%NULL%1,                Yajun%Chen%NULL%1,                Zhenkao%Wang%NULL%1,                Danju%Luo%NULL%1,                Ting%Zhou%NULL%1,                Ruiting%Li%NULL%0,                You%Shang%NULL%0,                Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,                Guorong%Zhang%NULL%1,                Xiaofang%Wang%NULL%1,                Meng%Guo%NULL%1,                Weihong%Zeng%NULL%1,                Zhihao%Xu%NULL%1,                Dan%Cao%NULL%1,                Aijun%Pan%NULL%0,                Yucai%Wang%NULL%1,                Kaiguang%Zhang%NULL%1,                Xiaoling%Ma%NULL%1,                Zhengxu%Chen%NULL%1,                Tengchuan%Jin%NULL%1,                Lianxin%Liu%NULL%0,                Jianping%Weng%NULL%1,                Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,                 Y.% Tong%null%1,                 G.% Shen%null%1,                 A.% Fu%null%1,                 Y.% Lai%null%1,                 X.% Zhou%null%2,                 Y.% Yuan%null%1,                 Y.% Wang%null%1,                 Y.% Pan%null%1,                 Z.% Yu%null%1,                 Y.% Li%null%0,                 T.% Liu%null%1,                 H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,                 H.-C.% Zhang%null%1,                 T.% Xu%null%1,                 J.% Wu%null%1,                 M.% Zhu%null%1,                 Y.-Q.% Yu%null%1,                 H.-Y.% Zhang%null%1,                 Z.% Shen%null%1,                 Y.% Li%null%0,                 X.% Zhou%null%0,                 G.-Q.% Zang%null%1,                 J.% Xu%null%1,                 W.-J.% Chen%null%1,                 Y.-J.% Li%null%1,                 D.-S.% Xie%null%1,                 M.-Z.% Zhou%null%1,                 J.-Y.% Sun%null%1,                 J.-Z.% Chen%null%1,                 W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,                 Yanfei%Chen%NULL%1,                 Zhengjie%Wu%NULL%1,                 Yunbo%Chen%NULL%1,                 Hainv%Gao%NULL%1,                 Longxian%Lv%NULL%1,                 Feifei%Guo%NULL%1,                 Xuewu%Zhang%NULL%1,                 Rui%Luo%NULL%1,                 Chenjie%Huang%NULL%1,                 Haifeng%Lu%NULL%1,                 Beiwen%Zheng%NULL%1,                 Jiaying%Zhang%NULL%1,                 Ren%Yan%NULL%1,                 Hua%Zhang%NULL%0,                 Huiyong%Jiang%NULL%1,                 Qiaomai%Xu%NULL%1,                 Jing%Guo%NULL%1,                 Yiwen%Gong%NULL%1,                 Lingling%Tang%NULL%1,                 Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,                 Fen%Zhang%NULL%2,                 Grace C.Y.%Lui%NULL%2,                 Yun Kit%Yeoh%NULL%1,                 Amy Y.L.%Li%NULL%1,                 Hui%Zhan%NULL%2,                 Yating%Wan%NULL%1,                 Arthur C.K.%Chung%NULL%1,                 Chun Pan%Cheung%NULL%1,                 Nan%Chen%NULL%2,                 Christopher K.C.%Lai%NULL%1,                 Zigui%Chen%NULL%1,                 Eugene Y.K.%Tso%NULL%2,                 Kitty S.C.%Fung%NULL%1,                 Veronica%Chan%NULL%1,                 Lowell%Ling%NULL%1,                 Gavin%Joynt%NULL%1,                 David S.C.%Hui%NULL%0,                 Francis K.L.%Chan%NULL%2,                 Paul K.S.%Chan%NULL%2,                 Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,                 Hui%Zhan%NULL%0,                 Fen%Zhang%NULL%0,                 Qin%Liu%NULL%0,                 Eugene Y.K.%Tso%NULL%0,                 Grace C.Y.%Lui%NULL%0,                 Nan%Chen%NULL%0,                 Amy%Li%NULL%1,                 Wenqi%Lu%NULL%1,                 Francis K.L.%Chan%NULL%0,                 Paul K.S.%Chan%NULL%0,                 Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,                 Jing-Wen%Ai%NULL%1,                 Wenjiao%Yang%NULL%1,                 Xian%Zhou%NULL%1,                 Fusheng%He%NULL%1,                 Shumei%Xie%NULL%1,                 Weiqi%Zeng%NULL%1,                 Yang%Li%NULL%0,                 Yiqi%Yu%NULL%1,                 Xuejing%Gou%NULL%1,                 Yongjun%Li%NULL%1,                 Xiaorui%Wang%NULL%1,                 Hang%Su%NULL%1,                 Teng%Xu%NULL%2,                 Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,                 Brunella%Posteraro%NULL%1,                 Francesca Romana%Ponziani%NULL%1,                 Paola%Cattani%NULL%1,                 Antonio%Gasbarrini%NULL%0,                 Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,                 Weiyong%Liu%NULL%0,                 Qi%Zhang%NULL%1,                 Ke%Xu%NULL%2,                 Ke%Xu%NULL%0,                 Guangming%Ye%NULL%0,                 Weichen%Wu%NULL%1,                 Ziyong%Sun%NULL%1,                 Fang%Liu%NULL%0,                 Kailang%Wu%NULL%0,                 Bo%Zhong%NULL%1,                 Yi%Mei%NULL%1,                 Wenxia%Zhang%NULL%1,                 Yu%Chen%NULL%0,                 Yirong%Li%NULL%0,                 Yirong%Li%NULL%0,                 Mang%Shi%NULL%1,                 Ke%Lan%NULL%1,                 Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                 Ye-Ming%Wang%NULL%1,                 Zhi-Qiang%Wu%NULL%1,                 Zi-Chun%Xiang%NULL%1,                 Li%Guo%NULL%0,                 Teng%Xu%NULL%0,                 Yong-Zhong%Jiang%NULL%1,                 Yan%Xiong%NULL%0,                 Yong-Jun%Li%NULL%1,                 Xing-Wang%Li%NULL%1,                 Hui%Li%NULL%0,                 Guo-Hui%Fan%NULL%1,                 Xiao-Ying%Gu%NULL%1,                 Yan%Xiao%NULL%0,                 Hong%Gao%NULL%0,                 Jiu-Yang%Xu%NULL%1,                 Fan%Yang%NULL%0,                 Xin-Ming%Wang%NULL%1,                 Chao%Wu%NULL%1,                 Lan%Chen%NULL%1,                 Yi-Wei%Liu%NULL%1,                 Bo%Liu%NULL%0,                 Jian%Yang%NULL%1,                 Xiao-Rui%Wang%NULL%1,                 Jie%Dong%NULL%1,                 Li%Li%NULL%0,                 Chao-Lin%Huang%NULL%1,                 Jian-Ping%Zhao%NULL%1,                 Yi%Hu%NULL%0,                 Zhen-Shun%Cheng%NULL%1,                 Lin-Lin%Liu%NULL%1,                 Zhao-Hui%Qian%NULL%1,                 Chuan%Qin%NULL%0,                 Qi%Jin%NULL%0,                 Bin%Cao%NULL%0,                 Jian-Wei%Wang%NULL%1,                 Xiu-Yuan%Hao%NULL%0,                 Xiu-Yuan%Hao%NULL%0,                 Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,                 Xiang%Li%NULL%1,                 Yong%Gao%NULL%1,                 Junjie%Zhou%NULL%1,                 Sihua%Wang%NULL%1,                 Bo%Huang%NULL%1,                 Junhua%Wu%NULL%1,                 Qin%Cao%NULL%1,                 Yajun%Chen%NULL%1,                 Zhenkao%Wang%NULL%1,                 Danju%Luo%NULL%1,                 Ting%Zhou%NULL%1,                 Ruiting%Li%NULL%0,                 You%Shang%NULL%0,                 Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,                 Guorong%Zhang%NULL%1,                 Xiaofang%Wang%NULL%1,                 Meng%Guo%NULL%1,                 Weihong%Zeng%NULL%1,                 Zhihao%Xu%NULL%1,                 Dan%Cao%NULL%1,                 Aijun%Pan%NULL%0,                 Yucai%Wang%NULL%1,                 Kaiguang%Zhang%NULL%1,                 Xiaoling%Ma%NULL%1,                 Zhengxu%Chen%NULL%1,                 Tengchuan%Jin%NULL%1,                 Lianxin%Liu%NULL%0,                 Jianping%Weng%NULL%1,                 Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,                  Y.% Tong%null%1,                  G.% Shen%null%1,                  A.% Fu%null%1,                  Y.% Lai%null%1,                  X.% Zhou%null%2,                  Y.% Yuan%null%1,                  Y.% Wang%null%1,                  Y.% Pan%null%1,                  Z.% Yu%null%1,                  Y.% Li%null%0,                  T.% Liu%null%1,                  H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,                  H.-C.% Zhang%null%1,                  T.% Xu%null%1,                  J.% Wu%null%1,                  M.% Zhu%null%1,                  Y.-Q.% Yu%null%1,                  H.-Y.% Zhang%null%1,                  Z.% Shen%null%1,                  Y.% Li%null%0,                  X.% Zhou%null%0,                  G.-Q.% Zang%null%1,                  J.% Xu%null%1,                  W.-J.% Chen%null%1,                  Y.-J.% Li%null%1,                  D.-S.% Xie%null%1,                  M.-Z.% Zhou%null%1,                  J.-Y.% Sun%null%1,                  J.-Z.% Chen%null%1,                  W.-H. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1260,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1223,7 +1289,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1252,7 +1318,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1281,7 +1347,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1310,7 +1376,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1339,7 +1405,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1368,7 +1434,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1397,7 +1463,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1426,7 +1492,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1455,7 +1521,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1484,7 +1550,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>

--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="274">
   <si>
     <t>Doi</t>
   </si>
@@ -911,6 +911,39 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,                  H.-C.% Zhang%null%1,                  T.% Xu%null%1,                  J.% Wu%null%1,                  M.% Zhu%null%1,                  Y.-Q.% Yu%null%1,                  H.-Y.% Zhang%null%1,                  Z.% Shen%null%1,                  Y.% Li%null%0,                  X.% Zhou%null%0,                  G.-Q.% Zang%null%1,                  J.% Xu%null%1,                  W.-J.% Chen%null%1,                  Y.-J.% Li%null%1,                  D.-S.% Xie%null%1,                  M.-Z.% Zhou%null%1,                  J.-Y.% Sun%null%1,                  J.-Z.% Chen%null%1,                  W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,                  Yanfei%Chen%NULL%1,                  Zhengjie%Wu%NULL%1,                  Yunbo%Chen%NULL%1,                  Hainv%Gao%NULL%1,                  Longxian%Lv%NULL%1,                  Feifei%Guo%NULL%1,                  Xuewu%Zhang%NULL%1,                  Rui%Luo%NULL%1,                  Chenjie%Huang%NULL%1,                  Haifeng%Lu%NULL%1,                  Beiwen%Zheng%NULL%1,                  Jiaying%Zhang%NULL%1,                  Ren%Yan%NULL%1,                  Hua%Zhang%NULL%0,                  Huiyong%Jiang%NULL%1,                  Qiaomai%Xu%NULL%1,                  Jing%Guo%NULL%1,                  Yiwen%Gong%NULL%1,                  Lingling%Tang%NULL%1,                  Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,                  Fen%Zhang%NULL%2,                  Grace C.Y.%Lui%NULL%2,                  Yun Kit%Yeoh%NULL%1,                  Amy Y.L.%Li%NULL%1,                  Hui%Zhan%NULL%2,                  Yating%Wan%NULL%1,                  Arthur C.K.%Chung%NULL%1,                  Chun Pan%Cheung%NULL%1,                  Nan%Chen%NULL%2,                  Christopher K.C.%Lai%NULL%1,                  Zigui%Chen%NULL%1,                  Eugene Y.K.%Tso%NULL%2,                  Kitty S.C.%Fung%NULL%1,                  Veronica%Chan%NULL%1,                  Lowell%Ling%NULL%1,                  Gavin%Joynt%NULL%1,                  David S.C.%Hui%NULL%0,                  Francis K.L.%Chan%NULL%2,                  Paul K.S.%Chan%NULL%2,                  Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,                  Hui%Zhan%NULL%0,                  Fen%Zhang%NULL%0,                  Qin%Liu%NULL%0,                  Eugene Y.K.%Tso%NULL%0,                  Grace C.Y.%Lui%NULL%0,                  Nan%Chen%NULL%0,                  Amy%Li%NULL%1,                  Wenqi%Lu%NULL%1,                  Francis K.L.%Chan%NULL%0,                  Paul K.S.%Chan%NULL%0,                  Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,                  Jing-Wen%Ai%NULL%1,                  Wenjiao%Yang%NULL%1,                  Xian%Zhou%NULL%1,                  Fusheng%He%NULL%1,                  Shumei%Xie%NULL%1,                  Weiqi%Zeng%NULL%1,                  Yang%Li%NULL%0,                  Yiqi%Yu%NULL%1,                  Xuejing%Gou%NULL%1,                  Yongjun%Li%NULL%1,                  Xiaorui%Wang%NULL%1,                  Hang%Su%NULL%1,                  Teng%Xu%NULL%2,                  Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,                  Brunella%Posteraro%NULL%1,                  Francesca Romana%Ponziani%NULL%1,                  Paola%Cattani%NULL%1,                  Antonio%Gasbarrini%NULL%0,                  Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,                  Weiyong%Liu%NULL%0,                  Qi%Zhang%NULL%1,                  Ke%Xu%NULL%2,                  Ke%Xu%NULL%0,                  Guangming%Ye%NULL%0,                  Weichen%Wu%NULL%1,                  Ziyong%Sun%NULL%1,                  Fang%Liu%NULL%0,                  Kailang%Wu%NULL%0,                  Bo%Zhong%NULL%1,                  Yi%Mei%NULL%1,                  Wenxia%Zhang%NULL%1,                  Yu%Chen%NULL%0,                  Yirong%Li%NULL%0,                  Yirong%Li%NULL%0,                  Mang%Shi%NULL%1,                  Ke%Lan%NULL%1,                  Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                  Ye-Ming%Wang%NULL%1,                  Zhi-Qiang%Wu%NULL%1,                  Zi-Chun%Xiang%NULL%1,                  Li%Guo%NULL%0,                  Teng%Xu%NULL%0,                  Yong-Zhong%Jiang%NULL%1,                  Yan%Xiong%NULL%0,                  Yong-Jun%Li%NULL%1,                  Xing-Wang%Li%NULL%1,                  Hui%Li%NULL%0,                  Guo-Hui%Fan%NULL%1,                  Xiao-Ying%Gu%NULL%1,                  Yan%Xiao%NULL%0,                  Hong%Gao%NULL%0,                  Jiu-Yang%Xu%NULL%1,                  Fan%Yang%NULL%0,                  Xin-Ming%Wang%NULL%1,                  Chao%Wu%NULL%1,                  Lan%Chen%NULL%1,                  Yi-Wei%Liu%NULL%1,                  Bo%Liu%NULL%0,                  Jian%Yang%NULL%1,                  Xiao-Rui%Wang%NULL%1,                  Jie%Dong%NULL%1,                  Li%Li%NULL%0,                  Chao-Lin%Huang%NULL%1,                  Jian-Ping%Zhao%NULL%1,                  Yi%Hu%NULL%0,                  Zhen-Shun%Cheng%NULL%1,                  Lin-Lin%Liu%NULL%1,                  Zhao-Hui%Qian%NULL%1,                  Chuan%Qin%NULL%0,                  Qi%Jin%NULL%0,                  Bin%Cao%NULL%0,                  Jian-Wei%Wang%NULL%1,                  Xiu-Yuan%Hao%NULL%0,                  Xiu-Yuan%Hao%NULL%0,                  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,                  Xiang%Li%NULL%1,                  Yong%Gao%NULL%1,                  Junjie%Zhou%NULL%1,                  Sihua%Wang%NULL%1,                  Bo%Huang%NULL%1,                  Junhua%Wu%NULL%1,                  Qin%Cao%NULL%1,                  Yajun%Chen%NULL%1,                  Zhenkao%Wang%NULL%1,                  Danju%Luo%NULL%1,                  Ting%Zhou%NULL%1,                  Ruiting%Li%NULL%0,                  You%Shang%NULL%0,                  Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,                  Guorong%Zhang%NULL%1,                  Xiaofang%Wang%NULL%1,                  Meng%Guo%NULL%1,                  Weihong%Zeng%NULL%1,                  Zhihao%Xu%NULL%1,                  Dan%Cao%NULL%1,                  Aijun%Pan%NULL%0,                  Yucai%Wang%NULL%1,                  Kaiguang%Zhang%NULL%1,                  Xiaoling%Ma%NULL%1,                  Zhengxu%Chen%NULL%1,                  Tengchuan%Jin%NULL%1,                  Lianxin%Liu%NULL%0,                  Jianping%Weng%NULL%1,                  Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,                   Y.% Tong%null%1,                   G.% Shen%null%1,                   A.% Fu%null%1,                   Y.% Lai%null%1,                   X.% Zhou%null%2,                   Y.% Yuan%null%1,                   Y.% Wang%null%1,                   Y.% Pan%null%1,                   Z.% Yu%null%1,                   Y.% Li%null%0,                   T.% Liu%null%1,                   H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,                   H.-C.% Zhang%null%1,                   T.% Xu%null%1,                   J.% Wu%null%1,                   M.% Zhu%null%1,                   Y.-Q.% Yu%null%1,                   H.-Y.% Zhang%null%1,                   Z.% Shen%null%1,                   Y.% Li%null%0,                   X.% Zhou%null%0,                   G.-Q.% Zang%null%1,                   J.% Xu%null%1,                   W.-J.% Chen%null%1,                   Y.-J.% Li%null%1,                   D.-S.% Xie%null%1,                   M.-Z.% Zhou%null%1,                   J.-Y.% Sun%null%1,                   J.-Z.% Chen%null%1,                   W.-H. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1293,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1289,7 +1322,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1318,7 +1351,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1347,7 +1380,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1376,7 +1409,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1405,7 +1438,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1434,7 +1467,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1463,7 +1496,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1492,7 +1525,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1521,7 +1554,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1550,7 +1583,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>

--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="289">
   <si>
     <t>Doi</t>
   </si>
@@ -944,6 +944,51 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,                   H.-C.% Zhang%null%1,                   T.% Xu%null%1,                   J.% Wu%null%1,                   M.% Zhu%null%1,                   Y.-Q.% Yu%null%1,                   H.-Y.% Zhang%null%1,                   Z.% Shen%null%1,                   Y.% Li%null%0,                   X.% Zhou%null%0,                   G.-Q.% Zang%null%1,                   J.% Xu%null%1,                   W.-J.% Chen%null%1,                   Y.-J.% Li%null%1,                   D.-S.% Xie%null%1,                   M.-Z.% Zhou%null%1,                   J.-Y.% Sun%null%1,                   J.-Z.% Chen%null%1,                   W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,                   Yanfei%Chen%NULL%1,                   Zhengjie%Wu%NULL%1,                   Yunbo%Chen%NULL%1,                   Hainv%Gao%NULL%1,                   Longxian%Lv%NULL%1,                   Feifei%Guo%NULL%1,                   Xuewu%Zhang%NULL%1,                   Rui%Luo%NULL%1,                   Chenjie%Huang%NULL%1,                   Haifeng%Lu%NULL%1,                   Beiwen%Zheng%NULL%1,                   Jiaying%Zhang%NULL%1,                   Ren%Yan%NULL%1,                   Hua%Zhang%NULL%0,                   Huiyong%Jiang%NULL%1,                   Qiaomai%Xu%NULL%1,                   Jing%Guo%NULL%1,                   Yiwen%Gong%NULL%1,                   Lingling%Tang%NULL%1,                   Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,                   Fen%Zhang%NULL%2,                   Grace C.Y.%Lui%NULL%2,                   Yun Kit%Yeoh%NULL%1,                   Amy Y.L.%Li%NULL%1,                   Hui%Zhan%NULL%2,                   Yating%Wan%NULL%1,                   Arthur C.K.%Chung%NULL%1,                   Chun Pan%Cheung%NULL%1,                   Nan%Chen%NULL%2,                   Christopher K.C.%Lai%NULL%1,                   Zigui%Chen%NULL%1,                   Eugene Y.K.%Tso%NULL%2,                   Kitty S.C.%Fung%NULL%1,                   Veronica%Chan%NULL%1,                   Lowell%Ling%NULL%1,                   Gavin%Joynt%NULL%1,                   David S.C.%Hui%NULL%0,                   Francis K.L.%Chan%NULL%2,                   Paul K.S.%Chan%NULL%2,                   Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,                   Hui%Zhan%NULL%0,                   Fen%Zhang%NULL%0,                   Qin%Liu%NULL%0,                   Eugene Y.K.%Tso%NULL%0,                   Grace C.Y.%Lui%NULL%0,                   Nan%Chen%NULL%0,                   Amy%Li%NULL%1,                   Wenqi%Lu%NULL%1,                   Francis K.L.%Chan%NULL%0,                   Paul K.S.%Chan%NULL%0,                   Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,                   Jing-Wen%Ai%NULL%1,                   Wenjiao%Yang%NULL%1,                   Xian%Zhou%NULL%1,                   Fusheng%He%NULL%1,                   Shumei%Xie%NULL%1,                   Weiqi%Zeng%NULL%1,                   Yang%Li%NULL%0,                   Yiqi%Yu%NULL%1,                   Xuejing%Gou%NULL%1,                   Yongjun%Li%NULL%1,                   Xiaorui%Wang%NULL%1,                   Hang%Su%NULL%1,                   Teng%Xu%NULL%2,                   Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,                   Brunella%Posteraro%NULL%1,                   Francesca Romana%Ponziani%NULL%1,                   Paola%Cattani%NULL%1,                   Antonio%Gasbarrini%NULL%0,                   Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,                   Weiyong%Liu%NULL%0,                   Qi%Zhang%NULL%1,                   Ke%Xu%NULL%2,                   Ke%Xu%NULL%0,                   Guangming%Ye%NULL%0,                   Weichen%Wu%NULL%1,                   Ziyong%Sun%NULL%1,                   Fang%Liu%NULL%0,                   Kailang%Wu%NULL%0,                   Bo%Zhong%NULL%1,                   Yi%Mei%NULL%1,                   Wenxia%Zhang%NULL%1,                   Yu%Chen%NULL%0,                   Yirong%Li%NULL%0,                   Yirong%Li%NULL%0,                   Mang%Shi%NULL%1,                   Ke%Lan%NULL%1,                   Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                   Ye-Ming%Wang%NULL%1,                   Zhi-Qiang%Wu%NULL%1,                   Zi-Chun%Xiang%NULL%1,                   Li%Guo%NULL%0,                   Teng%Xu%NULL%0,                   Yong-Zhong%Jiang%NULL%1,                   Yan%Xiong%NULL%0,                   Yong-Jun%Li%NULL%1,                   Xing-Wang%Li%NULL%1,                   Hui%Li%NULL%0,                   Guo-Hui%Fan%NULL%1,                   Xiao-Ying%Gu%NULL%1,                   Yan%Xiao%NULL%0,                   Hong%Gao%NULL%0,                   Jiu-Yang%Xu%NULL%1,                   Fan%Yang%NULL%0,                   Xin-Ming%Wang%NULL%1,                   Chao%Wu%NULL%1,                   Lan%Chen%NULL%1,                   Yi-Wei%Liu%NULL%1,                   Bo%Liu%NULL%0,                   Jian%Yang%NULL%1,                   Xiao-Rui%Wang%NULL%1,                   Jie%Dong%NULL%1,                   Li%Li%NULL%0,                   Chao-Lin%Huang%NULL%1,                   Jian-Ping%Zhao%NULL%1,                   Yi%Hu%NULL%0,                   Zhen-Shun%Cheng%NULL%1,                   Lin-Lin%Liu%NULL%1,                   Zhao-Hui%Qian%NULL%1,                   Chuan%Qin%NULL%0,                   Qi%Jin%NULL%0,                   Bin%Cao%NULL%0,                   Jian-Wei%Wang%NULL%1,                   Xiu-Yuan%Hao%NULL%0,                   Xiu-Yuan%Hao%NULL%0,                   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,                   Xiang%Li%NULL%1,                   Yong%Gao%NULL%1,                   Junjie%Zhou%NULL%1,                   Sihua%Wang%NULL%1,                   Bo%Huang%NULL%1,                   Junhua%Wu%NULL%1,                   Qin%Cao%NULL%1,                   Yajun%Chen%NULL%1,                   Zhenkao%Wang%NULL%1,                   Danju%Luo%NULL%1,                   Ting%Zhou%NULL%1,                   Ruiting%Li%NULL%0,                   You%Shang%NULL%0,                   Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,                   Guorong%Zhang%NULL%1,                   Xiaofang%Wang%NULL%1,                   Meng%Guo%NULL%1,                   Weihong%Zeng%NULL%1,                   Zhihao%Xu%NULL%1,                   Dan%Cao%NULL%1,                   Aijun%Pan%NULL%0,                   Yucai%Wang%NULL%1,                   Kaiguang%Zhang%NULL%1,                   Xiaoling%Ma%NULL%1,                   Zhengxu%Chen%NULL%1,                   Tengchuan%Jin%NULL%1,                   Lianxin%Liu%NULL%0,                   Jianping%Weng%NULL%1,                   Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,                    Y.% Tong%null%1,                    G.% Shen%null%1,                    A.% Fu%null%1,                    Y.% Lai%null%1,                    X.% Zhou%null%2,                    Y.% Yuan%null%1,                    Y.% Wang%null%1,                    Y.% Pan%null%1,                    Z.% Yu%null%1,                    Y.% Li%null%0,                    T.% Liu%null%1,                    H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,                    H.-C.% Zhang%null%1,                    T.% Xu%null%1,                    J.% Wu%null%1,                    M.% Zhu%null%1,                    Y.-Q.% Yu%null%1,                    H.-Y.% Zhang%null%1,                    Z.% Shen%null%1,                    Y.% Li%null%0,                    X.% Zhou%null%0,                    G.-Q.% Zang%null%1,                    J.% Xu%null%1,                    W.-J.% Chen%null%1,                    Y.-J.% Li%null%1,                    D.-S.% Xie%null%1,                    M.-Z.% Zhou%null%1,                    J.-Y.% Sun%null%1,                    J.-Z.% Chen%null%1,                    W.-H. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1338,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1305,7 +1350,7 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
@@ -1322,7 +1367,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1334,7 +1379,7 @@
         <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4">
@@ -1351,7 +1396,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1363,7 +1408,7 @@
         <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
@@ -1380,7 +1425,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1392,7 +1437,7 @@
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6">
@@ -1409,7 +1454,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1421,7 +1466,7 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7">
@@ -1438,7 +1483,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1450,7 +1495,7 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8">
@@ -1467,7 +1512,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1479,7 +1524,7 @@
         <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9">
@@ -1496,7 +1541,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1508,7 +1553,7 @@
         <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10">
@@ -1525,7 +1570,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1537,7 +1582,7 @@
         <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11">
@@ -1554,7 +1599,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1566,7 +1611,7 @@
         <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12">
@@ -1583,7 +1628,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1595,7 +1640,7 @@
         <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13">

--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="300">
   <si>
     <t>Doi</t>
   </si>
@@ -989,6 +989,39 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,                    H.-C.% Zhang%null%1,                    T.% Xu%null%1,                    J.% Wu%null%1,                    M.% Zhu%null%1,                    Y.-Q.% Yu%null%1,                    H.-Y.% Zhang%null%1,                    Z.% Shen%null%1,                    Y.% Li%null%0,                    X.% Zhou%null%0,                    G.-Q.% Zang%null%1,                    J.% Xu%null%1,                    W.-J.% Chen%null%1,                    Y.-J.% Li%null%1,                    D.-S.% Xie%null%1,                    M.-Z.% Zhou%null%1,                    J.-Y.% Sun%null%1,                    J.-Z.% Chen%null%1,                    W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,                    Yanfei%Chen%NULL%1,                    Zhengjie%Wu%NULL%1,                    Yunbo%Chen%NULL%1,                    Hainv%Gao%NULL%1,                    Longxian%Lv%NULL%1,                    Feifei%Guo%NULL%1,                    Xuewu%Zhang%NULL%1,                    Rui%Luo%NULL%1,                    Chenjie%Huang%NULL%1,                    Haifeng%Lu%NULL%1,                    Beiwen%Zheng%NULL%1,                    Jiaying%Zhang%NULL%1,                    Ren%Yan%NULL%1,                    Hua%Zhang%NULL%0,                    Huiyong%Jiang%NULL%1,                    Qiaomai%Xu%NULL%1,                    Jing%Guo%NULL%1,                    Yiwen%Gong%NULL%1,                    Lingling%Tang%NULL%1,                    Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,                    Fen%Zhang%NULL%2,                    Grace C.Y.%Lui%NULL%2,                    Yun Kit%Yeoh%NULL%1,                    Amy Y.L.%Li%NULL%1,                    Hui%Zhan%NULL%2,                    Yating%Wan%NULL%1,                    Arthur C.K.%Chung%NULL%1,                    Chun Pan%Cheung%NULL%1,                    Nan%Chen%NULL%2,                    Christopher K.C.%Lai%NULL%1,                    Zigui%Chen%NULL%1,                    Eugene Y.K.%Tso%NULL%2,                    Kitty S.C.%Fung%NULL%1,                    Veronica%Chan%NULL%1,                    Lowell%Ling%NULL%1,                    Gavin%Joynt%NULL%1,                    David S.C.%Hui%NULL%0,                    Francis K.L.%Chan%NULL%2,                    Paul K.S.%Chan%NULL%2,                    Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,                    Hui%Zhan%NULL%0,                    Fen%Zhang%NULL%0,                    Qin%Liu%NULL%0,                    Eugene Y.K.%Tso%NULL%0,                    Grace C.Y.%Lui%NULL%0,                    Nan%Chen%NULL%0,                    Amy%Li%NULL%1,                    Wenqi%Lu%NULL%1,                    Francis K.L.%Chan%NULL%0,                    Paul K.S.%Chan%NULL%0,                    Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,                    Jing-Wen%Ai%NULL%1,                    Wenjiao%Yang%NULL%1,                    Xian%Zhou%NULL%1,                    Fusheng%He%NULL%1,                    Shumei%Xie%NULL%1,                    Weiqi%Zeng%NULL%1,                    Yang%Li%NULL%0,                    Yiqi%Yu%NULL%1,                    Xuejing%Gou%NULL%1,                    Yongjun%Li%NULL%1,                    Xiaorui%Wang%NULL%1,                    Hang%Su%NULL%1,                    Teng%Xu%NULL%2,                    Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,                    Brunella%Posteraro%NULL%1,                    Francesca Romana%Ponziani%NULL%1,                    Paola%Cattani%NULL%1,                    Antonio%Gasbarrini%NULL%0,                    Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,                    Weiyong%Liu%NULL%0,                    Qi%Zhang%NULL%1,                    Ke%Xu%NULL%2,                    Ke%Xu%NULL%0,                    Guangming%Ye%NULL%0,                    Weichen%Wu%NULL%1,                    Ziyong%Sun%NULL%1,                    Fang%Liu%NULL%0,                    Kailang%Wu%NULL%0,                    Bo%Zhong%NULL%1,                    Yi%Mei%NULL%1,                    Wenxia%Zhang%NULL%1,                    Yu%Chen%NULL%0,                    Yirong%Li%NULL%0,                    Yirong%Li%NULL%0,                    Mang%Shi%NULL%1,                    Ke%Lan%NULL%1,                    Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                    Ye-Ming%Wang%NULL%1,                    Zhi-Qiang%Wu%NULL%1,                    Zi-Chun%Xiang%NULL%1,                    Li%Guo%NULL%0,                    Teng%Xu%NULL%0,                    Yong-Zhong%Jiang%NULL%1,                    Yan%Xiong%NULL%0,                    Yong-Jun%Li%NULL%1,                    Xing-Wang%Li%NULL%1,                    Hui%Li%NULL%0,                    Guo-Hui%Fan%NULL%1,                    Xiao-Ying%Gu%NULL%1,                    Yan%Xiao%NULL%0,                    Hong%Gao%NULL%0,                    Jiu-Yang%Xu%NULL%1,                    Fan%Yang%NULL%0,                    Xin-Ming%Wang%NULL%1,                    Chao%Wu%NULL%1,                    Lan%Chen%NULL%1,                    Yi-Wei%Liu%NULL%1,                    Bo%Liu%NULL%0,                    Jian%Yang%NULL%1,                    Xiao-Rui%Wang%NULL%1,                    Jie%Dong%NULL%1,                    Li%Li%NULL%0,                    Chao-Lin%Huang%NULL%1,                    Jian-Ping%Zhao%NULL%1,                    Yi%Hu%NULL%0,                    Zhen-Shun%Cheng%NULL%1,                    Lin-Lin%Liu%NULL%1,                    Zhao-Hui%Qian%NULL%1,                    Chuan%Qin%NULL%0,                    Qi%Jin%NULL%0,                    Bin%Cao%NULL%0,                    Jian-Wei%Wang%NULL%1,                    Xiu-Yuan%Hao%NULL%0,                    Xiu-Yuan%Hao%NULL%0,                    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,                    Xiang%Li%NULL%1,                    Yong%Gao%NULL%1,                    Junjie%Zhou%NULL%1,                    Sihua%Wang%NULL%1,                    Bo%Huang%NULL%1,                    Junhua%Wu%NULL%1,                    Qin%Cao%NULL%1,                    Yajun%Chen%NULL%1,                    Zhenkao%Wang%NULL%1,                    Danju%Luo%NULL%1,                    Ting%Zhou%NULL%1,                    Ruiting%Li%NULL%0,                    You%Shang%NULL%0,                    Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,                    Guorong%Zhang%NULL%1,                    Xiaofang%Wang%NULL%1,                    Meng%Guo%NULL%1,                    Weihong%Zeng%NULL%1,                    Zhihao%Xu%NULL%1,                    Dan%Cao%NULL%1,                    Aijun%Pan%NULL%0,                    Yucai%Wang%NULL%1,                    Kaiguang%Zhang%NULL%1,                    Xiaoling%Ma%NULL%1,                    Zhengxu%Chen%NULL%1,                    Tengchuan%Jin%NULL%1,                    Lianxin%Liu%NULL%0,                    Jianping%Weng%NULL%1,                    Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%2,                     Y.% Tong%null%1,                     G.% Shen%null%1,                     A.% Fu%null%1,                     Y.% Lai%null%1,                     X.% Zhou%null%2,                     Y.% Yuan%null%1,                     Y.% Wang%null%1,                     Y.% Pan%null%1,                     Z.% Yu%null%1,                     Y.% Li%null%0,                     T.% Liu%null%1,                     H. % Jiang%null%1,  L.%Yu%null%0,  Y.% Tong%null%1,  G.% Shen%null%1,  A.% Fu%null%1,  Y.% Lai%null%1,  X.% Zhou%null%2,  Y.% Yuan%null%1,  Y.% Wang%null%0,  Y.% Pan%null%1,  Z.% Yu%null%1,  Y.% Li%null%0,  T.% Liu%null%1,  H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%2,                     H.-C.% Zhang%null%1,                     T.% Xu%null%1,                     J.% Wu%null%1,                     M.% Zhu%null%1,                     Y.-Q.% Yu%null%1,                     H.-Y.% Zhang%null%1,                     Z.% Shen%null%1,                     Y.% Li%null%0,                     X.% Zhou%null%0,                     G.-Q.% Zang%null%1,                     J.% Xu%null%1,                     W.-J.% Chen%null%1,                     Y.-J.% Li%null%1,                     D.-S.% Xie%null%1,                     M.-Z.% Zhou%null%1,                     J.-Y.% Sun%null%1,                     J.-Z.% Chen%null%1,                     W.-H. % Zhang%null%1,  J.-W.%Ai%null%0,  H.-C.% Zhang%null%1,  T.% Xu%null%1,  J.% Wu%null%1,  M.% Zhu%null%1,  Y.-Q.% Yu%null%1,  H.-Y.% Zhang%null%1,  Z.% Shen%null%1,  Y.% Li%null%0,  X.% Zhou%null%0,  G.-Q.% Zang%null%1,  J.% Xu%null%1,  W.-J.% Chen%null%1,  Y.-J.% Li%null%1,  D.-S.% Xie%null%1,  M.-Z.% Zhou%null%1,  J.-Y.% Sun%null%1,  J.-Z.% Chen%null%1,  W.-H. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1371,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1367,7 +1400,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1396,7 +1429,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1425,7 +1458,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1454,7 +1487,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1483,7 +1516,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1512,7 +1545,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1541,7 +1574,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1570,7 +1603,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1599,7 +1632,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1628,7 +1661,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>

--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="356">
   <si>
     <t>Doi</t>
   </si>
@@ -1022,6 +1022,174 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%2,                     H.-C.% Zhang%null%1,                     T.% Xu%null%1,                     J.% Wu%null%1,                     M.% Zhu%null%1,                     Y.-Q.% Yu%null%1,                     H.-Y.% Zhang%null%1,                     Z.% Shen%null%1,                     Y.% Li%null%0,                     X.% Zhou%null%0,                     G.-Q.% Zang%null%1,                     J.% Xu%null%1,                     W.-J.% Chen%null%1,                     Y.-J.% Li%null%1,                     D.-S.% Xie%null%1,                     M.-Z.% Zhou%null%1,                     J.-Y.% Sun%null%1,                     J.-Z.% Chen%null%1,                     W.-H. % Zhang%null%1,  J.-W.%Ai%null%0,  H.-C.% Zhang%null%1,  T.% Xu%null%1,  J.% Wu%null%1,  M.% Zhu%null%1,  Y.-Q.% Yu%null%1,  H.-Y.% Zhang%null%1,  Z.% Shen%null%1,  Y.% Li%null%0,  X.% Zhou%null%0,  G.-Q.% Zang%null%1,  J.% Xu%null%1,  W.-J.% Chen%null%1,  Y.-J.% Li%null%1,  D.-S.% Xie%null%1,  M.-Z.% Zhou%null%1,  J.-Y.% Sun%null%1,  J.-Z.% Chen%null%1,  W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,                     Yanfei%Chen%NULL%1,                     Zhengjie%Wu%NULL%1,                     Yunbo%Chen%NULL%1,                     Hainv%Gao%NULL%1,                     Longxian%Lv%NULL%1,                     Feifei%Guo%NULL%1,                     Xuewu%Zhang%NULL%1,                     Rui%Luo%NULL%1,                     Chenjie%Huang%NULL%1,                     Haifeng%Lu%NULL%1,                     Beiwen%Zheng%NULL%1,                     Jiaying%Zhang%NULL%1,                     Ren%Yan%NULL%1,                     Hua%Zhang%NULL%0,                     Huiyong%Jiang%NULL%1,                     Qiaomai%Xu%NULL%1,                     Jing%Guo%NULL%1,                     Yiwen%Gong%NULL%1,                     Lingling%Tang%NULL%1,                     Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,                     Fen%Zhang%NULL%2,                     Grace C.Y.%Lui%NULL%2,                     Yun Kit%Yeoh%NULL%1,                     Amy Y.L.%Li%NULL%1,                     Hui%Zhan%NULL%2,                     Yating%Wan%NULL%1,                     Arthur C.K.%Chung%NULL%1,                     Chun Pan%Cheung%NULL%1,                     Nan%Chen%NULL%2,                     Christopher K.C.%Lai%NULL%1,                     Zigui%Chen%NULL%1,                     Eugene Y.K.%Tso%NULL%2,                     Kitty S.C.%Fung%NULL%1,                     Veronica%Chan%NULL%1,                     Lowell%Ling%NULL%1,                     Gavin%Joynt%NULL%1,                     David S.C.%Hui%NULL%0,                     Francis K.L.%Chan%NULL%2,                     Paul K.S.%Chan%NULL%2,                     Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,                     Hui%Zhan%NULL%0,                     Fen%Zhang%NULL%0,                     Qin%Liu%NULL%0,                     Eugene Y.K.%Tso%NULL%0,                     Grace C.Y.%Lui%NULL%0,                     Nan%Chen%NULL%0,                     Amy%Li%NULL%1,                     Wenqi%Lu%NULL%1,                     Francis K.L.%Chan%NULL%0,                     Paul K.S.%Chan%NULL%0,                     Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,                     Jing-Wen%Ai%NULL%1,                     Wenjiao%Yang%NULL%1,                     Xian%Zhou%NULL%1,                     Fusheng%He%NULL%1,                     Shumei%Xie%NULL%1,                     Weiqi%Zeng%NULL%1,                     Yang%Li%NULL%0,                     Yiqi%Yu%NULL%1,                     Xuejing%Gou%NULL%1,                     Yongjun%Li%NULL%1,                     Xiaorui%Wang%NULL%1,                     Hang%Su%NULL%1,                     Teng%Xu%NULL%2,                     Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,                     Brunella%Posteraro%NULL%1,                     Francesca Romana%Ponziani%NULL%1,                     Paola%Cattani%NULL%1,                     Antonio%Gasbarrini%NULL%0,                     Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%2,                     Weiyong%Liu%NULL%0,                     Qi%Zhang%NULL%1,                     Ke%Xu%NULL%2,                     Ke%Xu%NULL%0,                     Guangming%Ye%NULL%0,                     Weichen%Wu%NULL%1,                     Ziyong%Sun%NULL%1,                     Fang%Liu%NULL%0,                     Kailang%Wu%NULL%0,                     Bo%Zhong%NULL%1,                     Yi%Mei%NULL%1,                     Wenxia%Zhang%NULL%1,                     Yu%Chen%NULL%0,                     Yirong%Li%NULL%0,                     Yirong%Li%NULL%0,                     Mang%Shi%NULL%1,                     Ke%Lan%NULL%1,                     Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                     Ye-Ming%Wang%NULL%1,                     Zhi-Qiang%Wu%NULL%1,                     Zi-Chun%Xiang%NULL%1,                     Li%Guo%NULL%0,                     Teng%Xu%NULL%0,                     Yong-Zhong%Jiang%NULL%1,                     Yan%Xiong%NULL%0,                     Yong-Jun%Li%NULL%1,                     Xing-Wang%Li%NULL%1,                     Hui%Li%NULL%0,                     Guo-Hui%Fan%NULL%1,                     Xiao-Ying%Gu%NULL%1,                     Yan%Xiao%NULL%0,                     Hong%Gao%NULL%0,                     Jiu-Yang%Xu%NULL%1,                     Fan%Yang%NULL%0,                     Xin-Ming%Wang%NULL%1,                     Chao%Wu%NULL%1,                     Lan%Chen%NULL%1,                     Yi-Wei%Liu%NULL%1,                     Bo%Liu%NULL%0,                     Jian%Yang%NULL%1,                     Xiao-Rui%Wang%NULL%1,                     Jie%Dong%NULL%1,                     Li%Li%NULL%0,                     Chao-Lin%Huang%NULL%1,                     Jian-Ping%Zhao%NULL%1,                     Yi%Hu%NULL%0,                     Zhen-Shun%Cheng%NULL%1,                     Lin-Lin%Liu%NULL%1,                     Zhao-Hui%Qian%NULL%1,                     Chuan%Qin%NULL%0,                     Qi%Jin%NULL%0,                     Bin%Cao%NULL%0,                     Jian-Wei%Wang%NULL%1,                     Xiu-Yuan%Hao%NULL%0,                     Xiu-Yuan%Hao%NULL%0,                     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,                     Xiang%Li%NULL%1,                     Yong%Gao%NULL%1,                     Junjie%Zhou%NULL%1,                     Sihua%Wang%NULL%1,                     Bo%Huang%NULL%1,                     Junhua%Wu%NULL%1,                     Qin%Cao%NULL%1,                     Yajun%Chen%NULL%1,                     Zhenkao%Wang%NULL%1,                     Danju%Luo%NULL%1,                     Ting%Zhou%NULL%1,                     Ruiting%Li%NULL%0,                     You%Shang%NULL%0,                     Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,                     Guorong%Zhang%NULL%1,                     Xiaofang%Wang%NULL%1,                     Meng%Guo%NULL%1,                     Weihong%Zeng%NULL%1,                     Zhihao%Xu%NULL%1,                     Dan%Cao%NULL%1,                     Aijun%Pan%NULL%0,                     Yucai%Wang%NULL%1,                     Kaiguang%Zhang%NULL%1,                     Xiaoling%Ma%NULL%1,                     Zhengxu%Chen%NULL%1,                     Tengchuan%Jin%NULL%1,                     Lianxin%Liu%NULL%0,                     Jianping%Weng%NULL%1,                     Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,                      Y.% Tong%null%1,                      G.% Shen%null%1,                      A.% Fu%null%1,                      Y.% Lai%null%1,                      X.% Zhou%null%2,                      Y.% Yuan%null%1,                      Y.% Wang%null%1,                      Y.% Pan%null%1,                      Z.% Yu%null%1,                      Y.% Li%null%0,                      T.% Liu%null%1,                      H. % Jiang%null%1,   L.%Yu%null%1,   Y.% Tong%null%1,   G.% Shen%null%1,   A.% Fu%null%1,   Y.% Lai%null%1,   X.% Zhou%null%2,   Y.% Yuan%null%1,   Y.% Wang%null%0,   Y.% Pan%null%1,   Z.% Yu%null%1,   Y.% Li%null%0,   T.% Liu%null%1,   H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,                      H.-C.% Zhang%null%1,                      T.% Xu%null%1,                      J.% Wu%null%1,                      M.% Zhu%null%1,                      Y.-Q.% Yu%null%1,                      H.-Y.% Zhang%null%1,                      Z.% Shen%null%1,                      Y.% Li%null%0,                      X.% Zhou%null%0,                      G.-Q.% Zang%null%1,                      J.% Xu%null%1,                      W.-J.% Chen%null%1,                      Y.-J.% Li%null%1,                      D.-S.% Xie%null%1,                      M.-Z.% Zhou%null%1,                      J.-Y.% Sun%null%1,                      J.-Z.% Chen%null%1,                      W.-H. % Zhang%null%1,   J.-W.%Ai%null%1,   H.-C.% Zhang%null%1,   T.% Xu%null%1,   J.% Wu%null%1,   M.% Zhu%null%1,   Y.-Q.% Yu%null%1,   H.-Y.% Zhang%null%1,   Z.% Shen%null%1,   Y.% Li%null%0,   X.% Zhou%null%0,   G.-Q.% Zang%null%1,   J.% Xu%null%1,   W.-J.% Chen%null%1,   Y.-J.% Li%null%1,   D.-S.% Xie%null%1,   M.-Z.% Zhou%null%1,   J.-Y.% Sun%null%1,   J.-Z.% Chen%null%1,   W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,                      Yanfei%Chen%NULL%1,                      Zhengjie%Wu%NULL%1,                      Yunbo%Chen%NULL%1,                      Hainv%Gao%NULL%1,                      Longxian%Lv%NULL%1,                      Feifei%Guo%NULL%1,                      Xuewu%Zhang%NULL%1,                      Rui%Luo%NULL%1,                      Chenjie%Huang%NULL%1,                      Haifeng%Lu%NULL%1,                      Beiwen%Zheng%NULL%1,                      Jiaying%Zhang%NULL%1,                      Ren%Yan%NULL%1,                      Hua%Zhang%NULL%0,                      Huiyong%Jiang%NULL%1,                      Qiaomai%Xu%NULL%1,                      Jing%Guo%NULL%1,                      Yiwen%Gong%NULL%1,                      Lingling%Tang%NULL%1,                      Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,                      Fen%Zhang%NULL%2,                      Grace C.Y.%Lui%NULL%2,                      Yun Kit%Yeoh%NULL%1,                      Amy Y.L.%Li%NULL%1,                      Hui%Zhan%NULL%2,                      Yating%Wan%NULL%1,                      Arthur C.K.%Chung%NULL%1,                      Chun Pan%Cheung%NULL%1,                      Nan%Chen%NULL%2,                      Christopher K.C.%Lai%NULL%1,                      Zigui%Chen%NULL%1,                      Eugene Y.K.%Tso%NULL%2,                      Kitty S.C.%Fung%NULL%1,                      Veronica%Chan%NULL%1,                      Lowell%Ling%NULL%1,                      Gavin%Joynt%NULL%1,                      David S.C.%Hui%NULL%0,                      Francis K.L.%Chan%NULL%2,                      Paul K.S.%Chan%NULL%2,                      Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,                      Hui%Zhan%NULL%0,                      Fen%Zhang%NULL%0,                      Qin%Liu%NULL%0,                      Eugene Y.K.%Tso%NULL%0,                      Grace C.Y.%Lui%NULL%0,                      Nan%Chen%NULL%0,                      Amy%Li%NULL%1,                      Wenqi%Lu%NULL%1,                      Francis K.L.%Chan%NULL%0,                      Paul K.S.%Chan%NULL%0,                      Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,                      Jing-Wen%Ai%NULL%1,                      Wenjiao%Yang%NULL%1,                      Xian%Zhou%NULL%1,                      Fusheng%He%NULL%1,                      Shumei%Xie%NULL%1,                      Weiqi%Zeng%NULL%1,                      Yang%Li%NULL%0,                      Yiqi%Yu%NULL%1,                      Xuejing%Gou%NULL%1,                      Yongjun%Li%NULL%1,                      Xiaorui%Wang%NULL%1,                      Hang%Su%NULL%1,                      Teng%Xu%NULL%2,                      Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,                      Brunella%Posteraro%NULL%1,                      Francesca Romana%Ponziani%NULL%1,                      Paola%Cattani%NULL%1,                      Antonio%Gasbarrini%NULL%0,                      Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,                      Weiyong%Liu%NULL%0,                      Qi%Zhang%NULL%1,                      Ke%Xu%NULL%2,                      Ke%Xu%NULL%0,                      Guangming%Ye%NULL%0,                      Weichen%Wu%NULL%1,                      Ziyong%Sun%NULL%1,                      Fang%Liu%NULL%0,                      Kailang%Wu%NULL%0,                      Bo%Zhong%NULL%1,                      Yi%Mei%NULL%1,                      Wenxia%Zhang%NULL%1,                      Yu%Chen%NULL%0,                      Yirong%Li%NULL%0,                      Yirong%Li%NULL%0,                      Mang%Shi%NULL%1,                      Ke%Lan%NULL%1,                      Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                      Ye-Ming%Wang%NULL%1,                      Zhi-Qiang%Wu%NULL%1,                      Zi-Chun%Xiang%NULL%1,                      Li%Guo%NULL%0,                      Teng%Xu%NULL%0,                      Yong-Zhong%Jiang%NULL%1,                      Yan%Xiong%NULL%0,                      Yong-Jun%Li%NULL%1,                      Xing-Wang%Li%NULL%1,                      Hui%Li%NULL%0,                      Guo-Hui%Fan%NULL%1,                      Xiao-Ying%Gu%NULL%1,                      Yan%Xiao%NULL%0,                      Hong%Gao%NULL%0,                      Jiu-Yang%Xu%NULL%1,                      Fan%Yang%NULL%0,                      Xin-Ming%Wang%NULL%1,                      Chao%Wu%NULL%1,                      Lan%Chen%NULL%1,                      Yi-Wei%Liu%NULL%1,                      Bo%Liu%NULL%0,                      Jian%Yang%NULL%1,                      Xiao-Rui%Wang%NULL%1,                      Jie%Dong%NULL%1,                      Li%Li%NULL%0,                      Chao-Lin%Huang%NULL%1,                      Jian-Ping%Zhao%NULL%1,                      Yi%Hu%NULL%0,                      Zhen-Shun%Cheng%NULL%1,                      Lin-Lin%Liu%NULL%1,                      Zhao-Hui%Qian%NULL%1,                      Chuan%Qin%NULL%0,                      Qi%Jin%NULL%0,                      Bin%Cao%NULL%0,                      Jian-Wei%Wang%NULL%1,                      Xiu-Yuan%Hao%NULL%0,                      Xiu-Yuan%Hao%NULL%0,                      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,                      Xiang%Li%NULL%1,                      Yong%Gao%NULL%1,                      Junjie%Zhou%NULL%1,                      Sihua%Wang%NULL%1,                      Bo%Huang%NULL%1,                      Junhua%Wu%NULL%1,                      Qin%Cao%NULL%1,                      Yajun%Chen%NULL%1,                      Zhenkao%Wang%NULL%1,                      Danju%Luo%NULL%1,                      Ting%Zhou%NULL%1,                      Ruiting%Li%NULL%0,                      You%Shang%NULL%0,                      Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,                      Guorong%Zhang%NULL%1,                      Xiaofang%Wang%NULL%1,                      Meng%Guo%NULL%1,                      Weihong%Zeng%NULL%1,                      Zhihao%Xu%NULL%1,                      Dan%Cao%NULL%1,                      Aijun%Pan%NULL%0,                      Yucai%Wang%NULL%1,                      Kaiguang%Zhang%NULL%1,                      Xiaoling%Ma%NULL%1,                      Zhengxu%Chen%NULL%1,                      Tengchuan%Jin%NULL%1,                      Lianxin%Liu%NULL%0,                      Jianping%Weng%NULL%1,                      Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,                       Y.% Tong%null%1,                       G.% Shen%null%1,                       A.% Fu%null%1,                       Y.% Lai%null%1,                       X.% Zhou%null%2,                       Y.% Yuan%null%1,                       Y.% Wang%null%1,                       Y.% Pan%null%1,                       Z.% Yu%null%1,                       Y.% Li%null%0,                       T.% Liu%null%1,                       H. % Jiang%null%1,    L.%Yu%null%1,    Y.% Tong%null%1,    G.% Shen%null%1,    A.% Fu%null%1,    Y.% Lai%null%1,    X.% Zhou%null%2,    Y.% Yuan%null%1,    Y.% Wang%null%0,    Y.% Pan%null%1,    Z.% Yu%null%1,    Y.% Li%null%0,    T.% Liu%null%1,    H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,                       H.-C.% Zhang%null%1,                       T.% Xu%null%1,                       J.% Wu%null%1,                       M.% Zhu%null%1,                       Y.-Q.% Yu%null%1,                       H.-Y.% Zhang%null%1,                       Z.% Shen%null%1,                       Y.% Li%null%0,                       X.% Zhou%null%0,                       G.-Q.% Zang%null%1,                       J.% Xu%null%1,                       W.-J.% Chen%null%1,                       Y.-J.% Li%null%1,                       D.-S.% Xie%null%1,                       M.-Z.% Zhou%null%1,                       J.-Y.% Sun%null%1,                       J.-Z.% Chen%null%1,                       W.-H. % Zhang%null%1,    J.-W.%Ai%null%1,    H.-C.% Zhang%null%1,    T.% Xu%null%1,    J.% Wu%null%1,    M.% Zhu%null%1,    Y.-Q.% Yu%null%1,    H.-Y.% Zhang%null%1,    Z.% Shen%null%1,    Y.% Li%null%0,    X.% Zhou%null%0,    G.-Q.% Zang%null%1,    J.% Xu%null%1,    W.-J.% Chen%null%1,    Y.-J.% Li%null%1,    D.-S.% Xie%null%1,    M.-Z.% Zhou%null%1,    J.-Y.% Sun%null%1,    J.-Z.% Chen%null%1,    W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,                       Yanfei%Chen%NULL%1,                       Zhengjie%Wu%NULL%1,                       Yunbo%Chen%NULL%1,                       Hainv%Gao%NULL%1,                       Longxian%Lv%NULL%1,                       Feifei%Guo%NULL%1,                       Xuewu%Zhang%NULL%1,                       Rui%Luo%NULL%1,                       Chenjie%Huang%NULL%1,                       Haifeng%Lu%NULL%1,                       Beiwen%Zheng%NULL%1,                       Jiaying%Zhang%NULL%1,                       Ren%Yan%NULL%1,                       Hua%Zhang%NULL%0,                       Huiyong%Jiang%NULL%1,                       Qiaomai%Xu%NULL%1,                       Jing%Guo%NULL%1,                       Yiwen%Gong%NULL%1,                       Lingling%Tang%NULL%1,                       Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,                       Fen%Zhang%NULL%2,                       Grace C.Y.%Lui%NULL%2,                       Yun Kit%Yeoh%NULL%1,                       Amy Y.L.%Li%NULL%1,                       Hui%Zhan%NULL%2,                       Yating%Wan%NULL%1,                       Arthur C.K.%Chung%NULL%1,                       Chun Pan%Cheung%NULL%1,                       Nan%Chen%NULL%2,                       Christopher K.C.%Lai%NULL%1,                       Zigui%Chen%NULL%1,                       Eugene Y.K.%Tso%NULL%2,                       Kitty S.C.%Fung%NULL%1,                       Veronica%Chan%NULL%1,                       Lowell%Ling%NULL%1,                       Gavin%Joynt%NULL%1,                       David S.C.%Hui%NULL%0,                       Francis K.L.%Chan%NULL%2,                       Paul K.S.%Chan%NULL%2,                       Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,                       Hui%Zhan%NULL%0,                       Fen%Zhang%NULL%0,                       Qin%Liu%NULL%0,                       Eugene Y.K.%Tso%NULL%0,                       Grace C.Y.%Lui%NULL%0,                       Nan%Chen%NULL%0,                       Amy%Li%NULL%1,                       Wenqi%Lu%NULL%1,                       Francis K.L.%Chan%NULL%0,                       Paul K.S.%Chan%NULL%0,                       Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,                       Jing-Wen%Ai%NULL%1,                       Wenjiao%Yang%NULL%1,                       Xian%Zhou%NULL%1,                       Fusheng%He%NULL%1,                       Shumei%Xie%NULL%1,                       Weiqi%Zeng%NULL%1,                       Yang%Li%NULL%0,                       Yiqi%Yu%NULL%1,                       Xuejing%Gou%NULL%1,                       Yongjun%Li%NULL%1,                       Xiaorui%Wang%NULL%1,                       Hang%Su%NULL%1,                       Teng%Xu%NULL%2,                       Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,                       Brunella%Posteraro%NULL%1,                       Francesca Romana%Ponziani%NULL%1,                       Paola%Cattani%NULL%1,                       Antonio%Gasbarrini%NULL%0,                       Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,                       Weiyong%Liu%NULL%0,                       Qi%Zhang%NULL%1,                       Ke%Xu%NULL%2,                       Ke%Xu%NULL%0,                       Guangming%Ye%NULL%0,                       Weichen%Wu%NULL%1,                       Ziyong%Sun%NULL%1,                       Fang%Liu%NULL%0,                       Kailang%Wu%NULL%0,                       Bo%Zhong%NULL%1,                       Yi%Mei%NULL%1,                       Wenxia%Zhang%NULL%1,                       Yu%Chen%NULL%0,                       Yirong%Li%NULL%0,                       Yirong%Li%NULL%0,                       Mang%Shi%NULL%1,                       Ke%Lan%NULL%1,                       Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                       Ye-Ming%Wang%NULL%1,                       Zhi-Qiang%Wu%NULL%1,                       Zi-Chun%Xiang%NULL%1,                       Li%Guo%NULL%0,                       Teng%Xu%NULL%0,                       Yong-Zhong%Jiang%NULL%1,                       Yan%Xiong%NULL%0,                       Yong-Jun%Li%NULL%1,                       Xing-Wang%Li%NULL%1,                       Hui%Li%NULL%0,                       Guo-Hui%Fan%NULL%1,                       Xiao-Ying%Gu%NULL%1,                       Yan%Xiao%NULL%0,                       Hong%Gao%NULL%0,                       Jiu-Yang%Xu%NULL%1,                       Fan%Yang%NULL%0,                       Xin-Ming%Wang%NULL%1,                       Chao%Wu%NULL%1,                       Lan%Chen%NULL%1,                       Yi-Wei%Liu%NULL%1,                       Bo%Liu%NULL%0,                       Jian%Yang%NULL%1,                       Xiao-Rui%Wang%NULL%1,                       Jie%Dong%NULL%1,                       Li%Li%NULL%0,                       Chao-Lin%Huang%NULL%1,                       Jian-Ping%Zhao%NULL%1,                       Yi%Hu%NULL%0,                       Zhen-Shun%Cheng%NULL%1,                       Lin-Lin%Liu%NULL%1,                       Zhao-Hui%Qian%NULL%1,                       Chuan%Qin%NULL%0,                       Qi%Jin%NULL%0,                       Bin%Cao%NULL%0,                       Jian-Wei%Wang%NULL%1,                       Xiu-Yuan%Hao%NULL%0,                       Xiu-Yuan%Hao%NULL%0,                       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,                       Xiang%Li%NULL%1,                       Yong%Gao%NULL%1,                       Junjie%Zhou%NULL%1,                       Sihua%Wang%NULL%1,                       Bo%Huang%NULL%1,                       Junhua%Wu%NULL%1,                       Qin%Cao%NULL%1,                       Yajun%Chen%NULL%1,                       Zhenkao%Wang%NULL%1,                       Danju%Luo%NULL%1,                       Ting%Zhou%NULL%1,                       Ruiting%Li%NULL%0,                       You%Shang%NULL%0,                       Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,                       Guorong%Zhang%NULL%1,                       Xiaofang%Wang%NULL%1,                       Meng%Guo%NULL%1,                       Weihong%Zeng%NULL%1,                       Zhihao%Xu%NULL%1,                       Dan%Cao%NULL%1,                       Aijun%Pan%NULL%0,                       Yucai%Wang%NULL%1,                       Kaiguang%Zhang%NULL%1,                       Xiaoling%Ma%NULL%1,                       Zhengxu%Chen%NULL%1,                       Tengchuan%Jin%NULL%1,                       Lianxin%Liu%NULL%0,                       Jianping%Weng%NULL%1,                       Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,                        Y.% Tong%null%1,                        G.% Shen%null%1,                        A.% Fu%null%1,                        Y.% Lai%null%1,                        X.% Zhou%null%2,                        Y.% Yuan%null%1,                        Y.% Wang%null%1,                        Y.% Pan%null%1,                        Z.% Yu%null%1,                        Y.% Li%null%0,                        T.% Liu%null%1,                        H. % Jiang%null%1,     L.%Yu%null%1,     Y.% Tong%null%1,     G.% Shen%null%1,     A.% Fu%null%1,     Y.% Lai%null%1,     X.% Zhou%null%2,     Y.% Yuan%null%1,     Y.% Wang%null%0,     Y.% Pan%null%1,     Z.% Yu%null%1,     Y.% Li%null%0,     T.% Liu%null%1,     H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,                        H.-C.% Zhang%null%1,                        T.% Xu%null%1,                        J.% Wu%null%1,                        M.% Zhu%null%1,                        Y.-Q.% Yu%null%1,                        H.-Y.% Zhang%null%1,                        Z.% Shen%null%1,                        Y.% Li%null%0,                        X.% Zhou%null%0,                        G.-Q.% Zang%null%1,                        J.% Xu%null%1,                        W.-J.% Chen%null%1,                        Y.-J.% Li%null%1,                        D.-S.% Xie%null%1,                        M.-Z.% Zhou%null%1,                        J.-Y.% Sun%null%1,                        J.-Z.% Chen%null%1,                        W.-H. % Zhang%null%1,     J.-W.%Ai%null%1,     H.-C.% Zhang%null%1,     T.% Xu%null%1,     J.% Wu%null%1,     M.% Zhu%null%1,     Y.-Q.% Yu%null%1,     H.-Y.% Zhang%null%1,     Z.% Shen%null%1,     Y.% Li%null%0,     X.% Zhou%null%0,     G.-Q.% Zang%null%1,     J.% Xu%null%1,     W.-J.% Chen%null%1,     Y.-J.% Li%null%1,     D.-S.% Xie%null%1,     M.-Z.% Zhou%null%1,     J.-Y.% Sun%null%1,     J.-Z.% Chen%null%1,     W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,                        Yanfei%Chen%NULL%1,                        Zhengjie%Wu%NULL%1,                        Yunbo%Chen%NULL%1,                        Hainv%Gao%NULL%1,                        Longxian%Lv%NULL%1,                        Feifei%Guo%NULL%1,                        Xuewu%Zhang%NULL%1,                        Rui%Luo%NULL%1,                        Chenjie%Huang%NULL%1,                        Haifeng%Lu%NULL%1,                        Beiwen%Zheng%NULL%1,                        Jiaying%Zhang%NULL%1,                        Ren%Yan%NULL%1,                        Hua%Zhang%NULL%0,                        Huiyong%Jiang%NULL%1,                        Qiaomai%Xu%NULL%1,                        Jing%Guo%NULL%1,                        Yiwen%Gong%NULL%1,                        Lingling%Tang%NULL%1,                        Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,                        Fen%Zhang%NULL%2,                        Grace C.Y.%Lui%NULL%2,                        Yun Kit%Yeoh%NULL%1,                        Amy Y.L.%Li%NULL%1,                        Hui%Zhan%NULL%2,                        Yating%Wan%NULL%1,                        Arthur C.K.%Chung%NULL%1,                        Chun Pan%Cheung%NULL%1,                        Nan%Chen%NULL%2,                        Christopher K.C.%Lai%NULL%1,                        Zigui%Chen%NULL%1,                        Eugene Y.K.%Tso%NULL%2,                        Kitty S.C.%Fung%NULL%1,                        Veronica%Chan%NULL%1,                        Lowell%Ling%NULL%1,                        Gavin%Joynt%NULL%1,                        David S.C.%Hui%NULL%0,                        Francis K.L.%Chan%NULL%2,                        Paul K.S.%Chan%NULL%2,                        Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,                        Hui%Zhan%NULL%0,                        Fen%Zhang%NULL%0,                        Qin%Liu%NULL%0,                        Eugene Y.K.%Tso%NULL%0,                        Grace C.Y.%Lui%NULL%0,                        Nan%Chen%NULL%0,                        Amy%Li%NULL%1,                        Wenqi%Lu%NULL%1,                        Francis K.L.%Chan%NULL%0,                        Paul K.S.%Chan%NULL%0,                        Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,                        Jing-Wen%Ai%NULL%1,                        Wenjiao%Yang%NULL%1,                        Xian%Zhou%NULL%1,                        Fusheng%He%NULL%1,                        Shumei%Xie%NULL%1,                        Weiqi%Zeng%NULL%1,                        Yang%Li%NULL%0,                        Yiqi%Yu%NULL%1,                        Xuejing%Gou%NULL%1,                        Yongjun%Li%NULL%1,                        Xiaorui%Wang%NULL%1,                        Hang%Su%NULL%1,                        Teng%Xu%NULL%2,                        Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,                        Brunella%Posteraro%NULL%1,                        Francesca Romana%Ponziani%NULL%1,                        Paola%Cattani%NULL%1,                        Antonio%Gasbarrini%NULL%0,                        Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,                        Weiyong%Liu%NULL%0,                        Qi%Zhang%NULL%1,                        Ke%Xu%NULL%2,                        Ke%Xu%NULL%0,                        Guangming%Ye%NULL%0,                        Weichen%Wu%NULL%1,                        Ziyong%Sun%NULL%1,                        Fang%Liu%NULL%0,                        Kailang%Wu%NULL%0,                        Bo%Zhong%NULL%1,                        Yi%Mei%NULL%1,                        Wenxia%Zhang%NULL%1,                        Yu%Chen%NULL%0,                        Yirong%Li%NULL%0,                        Yirong%Li%NULL%0,                        Mang%Shi%NULL%1,                        Ke%Lan%NULL%1,                        Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                        Ye-Ming%Wang%NULL%1,                        Zhi-Qiang%Wu%NULL%1,                        Zi-Chun%Xiang%NULL%1,                        Li%Guo%NULL%0,                        Teng%Xu%NULL%0,                        Yong-Zhong%Jiang%NULL%1,                        Yan%Xiong%NULL%0,                        Yong-Jun%Li%NULL%1,                        Xing-Wang%Li%NULL%1,                        Hui%Li%NULL%0,                        Guo-Hui%Fan%NULL%1,                        Xiao-Ying%Gu%NULL%1,                        Yan%Xiao%NULL%0,                        Hong%Gao%NULL%0,                        Jiu-Yang%Xu%NULL%1,                        Fan%Yang%NULL%0,                        Xin-Ming%Wang%NULL%1,                        Chao%Wu%NULL%1,                        Lan%Chen%NULL%1,                        Yi-Wei%Liu%NULL%1,                        Bo%Liu%NULL%0,                        Jian%Yang%NULL%1,                        Xiao-Rui%Wang%NULL%1,                        Jie%Dong%NULL%1,                        Li%Li%NULL%0,                        Chao-Lin%Huang%NULL%1,                        Jian-Ping%Zhao%NULL%1,                        Yi%Hu%NULL%0,                        Zhen-Shun%Cheng%NULL%1,                        Lin-Lin%Liu%NULL%1,                        Zhao-Hui%Qian%NULL%1,                        Chuan%Qin%NULL%0,                        Qi%Jin%NULL%0,                        Bin%Cao%NULL%0,                        Jian-Wei%Wang%NULL%1,                        Xiu-Yuan%Hao%NULL%0,                        Xiu-Yuan%Hao%NULL%0,                        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,                        Xiang%Li%NULL%1,                        Yong%Gao%NULL%1,                        Junjie%Zhou%NULL%1,                        Sihua%Wang%NULL%1,                        Bo%Huang%NULL%1,                        Junhua%Wu%NULL%1,                        Qin%Cao%NULL%1,                        Yajun%Chen%NULL%1,                        Zhenkao%Wang%NULL%1,                        Danju%Luo%NULL%1,                        Ting%Zhou%NULL%1,                        Ruiting%Li%NULL%0,                        You%Shang%NULL%0,                        Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,                        Guorong%Zhang%NULL%1,                        Xiaofang%Wang%NULL%1,                        Meng%Guo%NULL%1,                        Weihong%Zeng%NULL%1,                        Zhihao%Xu%NULL%1,                        Dan%Cao%NULL%1,                        Aijun%Pan%NULL%0,                        Yucai%Wang%NULL%1,                        Kaiguang%Zhang%NULL%1,                        Xiaoling%Ma%NULL%1,                        Zhengxu%Chen%NULL%1,                        Tengchuan%Jin%NULL%1,                        Lianxin%Liu%NULL%0,                        Jianping%Weng%NULL%1,                        Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,                         Y.% Tong%null%1,                         G.% Shen%null%1,                         A.% Fu%null%1,                         Y.% Lai%null%1,                         X.% Zhou%null%2,                         Y.% Yuan%null%1,                         Y.% Wang%null%1,                         Y.% Pan%null%1,                         Z.% Yu%null%1,                         Y.% Li%null%0,                         T.% Liu%null%1,                         H. % Jiang%null%1,      L.%Yu%null%1,      Y.% Tong%null%1,      G.% Shen%null%1,      A.% Fu%null%1,      Y.% Lai%null%1,      X.% Zhou%null%2,      Y.% Yuan%null%1,      Y.% Wang%null%0,      Y.% Pan%null%1,      Z.% Yu%null%1,      Y.% Li%null%0,      T.% Liu%null%1,      H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,                         H.-C.% Zhang%null%1,                         T.% Xu%null%1,                         J.% Wu%null%1,                         M.% Zhu%null%1,                         Y.-Q.% Yu%null%1,                         H.-Y.% Zhang%null%1,                         Z.% Shen%null%1,                         Y.% Li%null%0,                         X.% Zhou%null%0,                         G.-Q.% Zang%null%1,                         J.% Xu%null%1,                         W.-J.% Chen%null%1,                         Y.-J.% Li%null%1,                         D.-S.% Xie%null%1,                         M.-Z.% Zhou%null%1,                         J.-Y.% Sun%null%1,                         J.-Z.% Chen%null%1,                         W.-H. % Zhang%null%1,      J.-W.%Ai%null%1,      H.-C.% Zhang%null%1,      T.% Xu%null%1,      J.% Wu%null%1,      M.% Zhu%null%1,      Y.-Q.% Yu%null%1,      H.-Y.% Zhang%null%1,      Z.% Shen%null%1,      Y.% Li%null%0,      X.% Zhou%null%0,      G.-Q.% Zang%null%1,      J.% Xu%null%1,      W.-J.% Chen%null%1,      Y.-J.% Li%null%1,      D.-S.% Xie%null%1,      M.-Z.% Zhou%null%1,      J.-Y.% Sun%null%1,      J.-Z.% Chen%null%1,      W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,                         Yanfei%Chen%NULL%1,                         Zhengjie%Wu%NULL%1,                         Yunbo%Chen%NULL%1,                         Hainv%Gao%NULL%1,                         Longxian%Lv%NULL%1,                         Feifei%Guo%NULL%1,                         Xuewu%Zhang%NULL%1,                         Rui%Luo%NULL%1,                         Chenjie%Huang%NULL%1,                         Haifeng%Lu%NULL%1,                         Beiwen%Zheng%NULL%1,                         Jiaying%Zhang%NULL%1,                         Ren%Yan%NULL%1,                         Hua%Zhang%NULL%0,                         Huiyong%Jiang%NULL%1,                         Qiaomai%Xu%NULL%1,                         Jing%Guo%NULL%1,                         Yiwen%Gong%NULL%1,                         Lingling%Tang%NULL%1,                         Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,                         Fen%Zhang%NULL%2,                         Grace C.Y.%Lui%NULL%2,                         Yun Kit%Yeoh%NULL%1,                         Amy Y.L.%Li%NULL%1,                         Hui%Zhan%NULL%2,                         Yating%Wan%NULL%1,                         Arthur C.K.%Chung%NULL%1,                         Chun Pan%Cheung%NULL%1,                         Nan%Chen%NULL%2,                         Christopher K.C.%Lai%NULL%1,                         Zigui%Chen%NULL%1,                         Eugene Y.K.%Tso%NULL%2,                         Kitty S.C.%Fung%NULL%1,                         Veronica%Chan%NULL%1,                         Lowell%Ling%NULL%1,                         Gavin%Joynt%NULL%1,                         David S.C.%Hui%NULL%0,                         Francis K.L.%Chan%NULL%2,                         Paul K.S.%Chan%NULL%2,                         Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,                         Hui%Zhan%NULL%0,                         Fen%Zhang%NULL%0,                         Qin%Liu%NULL%0,                         Eugene Y.K.%Tso%NULL%0,                         Grace C.Y.%Lui%NULL%0,                         Nan%Chen%NULL%0,                         Amy%Li%NULL%1,                         Wenqi%Lu%NULL%1,                         Francis K.L.%Chan%NULL%0,                         Paul K.S.%Chan%NULL%0,                         Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,                         Jing-Wen%Ai%NULL%1,                         Wenjiao%Yang%NULL%1,                         Xian%Zhou%NULL%1,                         Fusheng%He%NULL%1,                         Shumei%Xie%NULL%1,                         Weiqi%Zeng%NULL%1,                         Yang%Li%NULL%0,                         Yiqi%Yu%NULL%1,                         Xuejing%Gou%NULL%1,                         Yongjun%Li%NULL%1,                         Xiaorui%Wang%NULL%1,                         Hang%Su%NULL%1,                         Teng%Xu%NULL%2,                         Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,                         Brunella%Posteraro%NULL%1,                         Francesca Romana%Ponziani%NULL%1,                         Paola%Cattani%NULL%1,                         Antonio%Gasbarrini%NULL%0,                         Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,                         Weiyong%Liu%NULL%0,                         Qi%Zhang%NULL%1,                         Ke%Xu%NULL%2,                         Ke%Xu%NULL%0,                         Guangming%Ye%NULL%0,                         Weichen%Wu%NULL%1,                         Ziyong%Sun%NULL%1,                         Fang%Liu%NULL%0,                         Kailang%Wu%NULL%0,                         Bo%Zhong%NULL%1,                         Yi%Mei%NULL%1,                         Wenxia%Zhang%NULL%1,                         Yu%Chen%NULL%0,                         Yirong%Li%NULL%0,                         Yirong%Li%NULL%0,                         Mang%Shi%NULL%1,                         Ke%Lan%NULL%1,                         Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                         Ye-Ming%Wang%NULL%1,                         Zhi-Qiang%Wu%NULL%1,                         Zi-Chun%Xiang%NULL%1,                         Li%Guo%NULL%0,                         Teng%Xu%NULL%0,                         Yong-Zhong%Jiang%NULL%1,                         Yan%Xiong%NULL%0,                         Yong-Jun%Li%NULL%1,                         Xing-Wang%Li%NULL%1,                         Hui%Li%NULL%0,                         Guo-Hui%Fan%NULL%1,                         Xiao-Ying%Gu%NULL%1,                         Yan%Xiao%NULL%0,                         Hong%Gao%NULL%0,                         Jiu-Yang%Xu%NULL%1,                         Fan%Yang%NULL%0,                         Xin-Ming%Wang%NULL%1,                         Chao%Wu%NULL%1,                         Lan%Chen%NULL%1,                         Yi-Wei%Liu%NULL%1,                         Bo%Liu%NULL%0,                         Jian%Yang%NULL%1,                         Xiao-Rui%Wang%NULL%1,                         Jie%Dong%NULL%1,                         Li%Li%NULL%0,                         Chao-Lin%Huang%NULL%1,                         Jian-Ping%Zhao%NULL%1,                         Yi%Hu%NULL%0,                         Zhen-Shun%Cheng%NULL%1,                         Lin-Lin%Liu%NULL%1,                         Zhao-Hui%Qian%NULL%1,                         Chuan%Qin%NULL%0,                         Qi%Jin%NULL%0,                         Bin%Cao%NULL%0,                         Jian-Wei%Wang%NULL%1,                         Xiu-Yuan%Hao%NULL%0,                         Xiu-Yuan%Hao%NULL%0,                         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,                         Xiang%Li%NULL%1,                         Yong%Gao%NULL%1,                         Junjie%Zhou%NULL%1,                         Sihua%Wang%NULL%1,                         Bo%Huang%NULL%1,                         Junhua%Wu%NULL%1,                         Qin%Cao%NULL%1,                         Yajun%Chen%NULL%1,                         Zhenkao%Wang%NULL%1,                         Danju%Luo%NULL%1,                         Ting%Zhou%NULL%1,                         Ruiting%Li%NULL%0,                         You%Shang%NULL%0,                         Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,                         Guorong%Zhang%NULL%1,                         Xiaofang%Wang%NULL%1,                         Meng%Guo%NULL%1,                         Weihong%Zeng%NULL%1,                         Zhihao%Xu%NULL%1,                         Dan%Cao%NULL%1,                         Aijun%Pan%NULL%0,                         Yucai%Wang%NULL%1,                         Kaiguang%Zhang%NULL%1,                         Xiaoling%Ma%NULL%1,                         Zhengxu%Chen%NULL%1,                         Tengchuan%Jin%NULL%1,                         Lianxin%Liu%NULL%0,                         Jianping%Weng%NULL%1,                         Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,                          Y.% Tong%null%1,                          G.% Shen%null%1,                          A.% Fu%null%1,                          Y.% Lai%null%1,                          X.% Zhou%null%2,                          Y.% Yuan%null%1,                          Y.% Wang%null%1,                          Y.% Pan%null%1,                          Z.% Yu%null%1,                          Y.% Li%null%0,                          T.% Liu%null%1,                          H. % Jiang%null%1,       L.%Yu%null%1,       Y.% Tong%null%1,       G.% Shen%null%1,       A.% Fu%null%1,       Y.% Lai%null%1,       X.% Zhou%null%2,       Y.% Yuan%null%1,       Y.% Wang%null%0,       Y.% Pan%null%1,       Z.% Yu%null%1,       Y.% Li%null%0,       T.% Liu%null%1,       H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,                          H.-C.% Zhang%null%1,                          T.% Xu%null%1,                          J.% Wu%null%1,                          M.% Zhu%null%1,                          Y.-Q.% Yu%null%1,                          H.-Y.% Zhang%null%1,                          Z.% Shen%null%1,                          Y.% Li%null%0,                          X.% Zhou%null%0,                          G.-Q.% Zang%null%1,                          J.% Xu%null%1,                          W.-J.% Chen%null%1,                          Y.-J.% Li%null%1,                          D.-S.% Xie%null%1,                          M.-Z.% Zhou%null%1,                          J.-Y.% Sun%null%1,                          J.-Z.% Chen%null%1,                          W.-H. % Zhang%null%1,       J.-W.%Ai%null%1,       H.-C.% Zhang%null%1,       T.% Xu%null%1,       J.% Wu%null%1,       M.% Zhu%null%1,       Y.-Q.% Yu%null%1,       H.-Y.% Zhang%null%1,       Z.% Shen%null%1,       Y.% Li%null%0,       X.% Zhou%null%0,       G.-Q.% Zang%null%1,       J.% Xu%null%1,       W.-J.% Chen%null%1,       Y.-J.% Li%null%1,       D.-S.% Xie%null%1,       M.-Z.% Zhou%null%1,       J.-Y.% Sun%null%1,       J.-Z.% Chen%null%1,       W.-H. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1356,6 +1524,9 @@
       <c r="I1" t="s">
         <v>102</v>
       </c>
+      <c r="J1" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1371,7 +1542,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1384,6 +1555,9 @@
       </c>
       <c r="I2" t="s">
         <v>275</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -1400,7 +1574,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1413,6 +1587,9 @@
       </c>
       <c r="I3" t="s">
         <v>277</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1429,7 +1606,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>347</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1442,6 +1619,9 @@
       </c>
       <c r="I4" t="s">
         <v>277</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -1458,7 +1638,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1471,6 +1651,9 @@
       </c>
       <c r="I5" t="s">
         <v>275</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -1487,7 +1670,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1500,6 +1683,9 @@
       </c>
       <c r="I6" t="s">
         <v>281</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -1516,7 +1702,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1529,6 +1715,9 @@
       </c>
       <c r="I7" t="s">
         <v>275</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -1545,7 +1734,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1558,6 +1747,9 @@
       </c>
       <c r="I8" t="s">
         <v>275</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1574,7 +1766,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1587,6 +1779,9 @@
       </c>
       <c r="I9" t="s">
         <v>277</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -1603,7 +1798,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1616,6 +1811,9 @@
       </c>
       <c r="I10" t="s">
         <v>277</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -1632,7 +1830,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1645,6 +1843,9 @@
       </c>
       <c r="I11" t="s">
         <v>287</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -1661,7 +1862,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1674,6 +1875,9 @@
       </c>
       <c r="I12" t="s">
         <v>287</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -1704,6 +1908,9 @@
       <c r="I13" t="s">
         <v>62</v>
       </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -1731,6 +1938,9 @@
         <v>33</v>
       </c>
       <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Covid_19_Dataset_and_References/References/102.xlsx
+++ b/Covid_19_Dataset_and_References/References/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="378">
   <si>
     <t>Doi</t>
   </si>
@@ -1190,6 +1190,72 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,                          H.-C.% Zhang%null%1,                          T.% Xu%null%1,                          J.% Wu%null%1,                          M.% Zhu%null%1,                          Y.-Q.% Yu%null%1,                          H.-Y.% Zhang%null%1,                          Z.% Shen%null%1,                          Y.% Li%null%0,                          X.% Zhou%null%0,                          G.-Q.% Zang%null%1,                          J.% Xu%null%1,                          W.-J.% Chen%null%1,                          Y.-J.% Li%null%1,                          D.-S.% Xie%null%1,                          M.-Z.% Zhou%null%1,                          J.-Y.% Sun%null%1,                          J.-Z.% Chen%null%1,                          W.-H. % Zhang%null%1,       J.-W.%Ai%null%1,       H.-C.% Zhang%null%1,       T.% Xu%null%1,       J.% Wu%null%1,       M.% Zhu%null%1,       Y.-Q.% Yu%null%1,       H.-Y.% Zhang%null%1,       Z.% Shen%null%1,       Y.% Li%null%0,       X.% Zhou%null%0,       G.-Q.% Zang%null%1,       J.% Xu%null%1,       W.-J.% Chen%null%1,       Y.-J.% Li%null%1,       D.-S.% Xie%null%1,       M.-Z.% Zhou%null%1,       J.-Y.% Sun%null%1,       J.-Z.% Chen%null%1,       W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,                          Yanfei%Chen%NULL%1,                          Zhengjie%Wu%NULL%1,                          Yunbo%Chen%NULL%1,                          Hainv%Gao%NULL%1,                          Longxian%Lv%NULL%1,                          Feifei%Guo%NULL%1,                          Xuewu%Zhang%NULL%1,                          Rui%Luo%NULL%1,                          Chenjie%Huang%NULL%1,                          Haifeng%Lu%NULL%1,                          Beiwen%Zheng%NULL%1,                          Jiaying%Zhang%NULL%1,                          Ren%Yan%NULL%1,                          Hua%Zhang%NULL%0,                          Huiyong%Jiang%NULL%1,                          Qiaomai%Xu%NULL%1,                          Jing%Guo%NULL%1,                          Yiwen%Gong%NULL%1,                          Lingling%Tang%NULL%1,                          Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,                          Fen%Zhang%NULL%2,                          Grace C.Y.%Lui%NULL%2,                          Yun Kit%Yeoh%NULL%1,                          Amy Y.L.%Li%NULL%1,                          Hui%Zhan%NULL%2,                          Yating%Wan%NULL%1,                          Arthur C.K.%Chung%NULL%1,                          Chun Pan%Cheung%NULL%1,                          Nan%Chen%NULL%2,                          Christopher K.C.%Lai%NULL%1,                          Zigui%Chen%NULL%1,                          Eugene Y.K.%Tso%NULL%2,                          Kitty S.C.%Fung%NULL%1,                          Veronica%Chan%NULL%1,                          Lowell%Ling%NULL%1,                          Gavin%Joynt%NULL%1,                          David S.C.%Hui%NULL%0,                          Francis K.L.%Chan%NULL%2,                          Paul K.S.%Chan%NULL%2,                          Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,                          Hui%Zhan%NULL%0,                          Fen%Zhang%NULL%0,                          Qin%Liu%NULL%0,                          Eugene Y.K.%Tso%NULL%0,                          Grace C.Y.%Lui%NULL%0,                          Nan%Chen%NULL%0,                          Amy%Li%NULL%1,                          Wenqi%Lu%NULL%1,                          Francis K.L.%Chan%NULL%0,                          Paul K.S.%Chan%NULL%0,                          Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,                          Jing-Wen%Ai%NULL%1,                          Wenjiao%Yang%NULL%1,                          Xian%Zhou%NULL%1,                          Fusheng%He%NULL%1,                          Shumei%Xie%NULL%1,                          Weiqi%Zeng%NULL%1,                          Yang%Li%NULL%0,                          Yiqi%Yu%NULL%1,                          Xuejing%Gou%NULL%1,                          Yongjun%Li%NULL%1,                          Xiaorui%Wang%NULL%1,                          Hang%Su%NULL%1,                          Teng%Xu%NULL%2,                          Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,                          Brunella%Posteraro%NULL%1,                          Francesca Romana%Ponziani%NULL%1,                          Paola%Cattani%NULL%1,                          Antonio%Gasbarrini%NULL%0,                          Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,                          Weiyong%Liu%NULL%0,                          Qi%Zhang%NULL%1,                          Ke%Xu%NULL%2,                          Ke%Xu%NULL%0,                          Guangming%Ye%NULL%0,                          Weichen%Wu%NULL%1,                          Ziyong%Sun%NULL%1,                          Fang%Liu%NULL%0,                          Kailang%Wu%NULL%0,                          Bo%Zhong%NULL%1,                          Yi%Mei%NULL%1,                          Wenxia%Zhang%NULL%1,                          Yu%Chen%NULL%0,                          Yirong%Li%NULL%0,                          Yirong%Li%NULL%0,                          Mang%Shi%NULL%1,                          Ke%Lan%NULL%1,                          Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                          Ye-Ming%Wang%NULL%1,                          Zhi-Qiang%Wu%NULL%1,                          Zi-Chun%Xiang%NULL%1,                          Li%Guo%NULL%0,                          Teng%Xu%NULL%0,                          Yong-Zhong%Jiang%NULL%1,                          Yan%Xiong%NULL%0,                          Yong-Jun%Li%NULL%1,                          Xing-Wang%Li%NULL%1,                          Hui%Li%NULL%0,                          Guo-Hui%Fan%NULL%1,                          Xiao-Ying%Gu%NULL%1,                          Yan%Xiao%NULL%0,                          Hong%Gao%NULL%0,                          Jiu-Yang%Xu%NULL%1,                          Fan%Yang%NULL%0,                          Xin-Ming%Wang%NULL%1,                          Chao%Wu%NULL%1,                          Lan%Chen%NULL%1,                          Yi-Wei%Liu%NULL%1,                          Bo%Liu%NULL%0,                          Jian%Yang%NULL%1,                          Xiao-Rui%Wang%NULL%1,                          Jie%Dong%NULL%1,                          Li%Li%NULL%0,                          Chao-Lin%Huang%NULL%1,                          Jian-Ping%Zhao%NULL%1,                          Yi%Hu%NULL%0,                          Zhen-Shun%Cheng%NULL%1,                          Lin-Lin%Liu%NULL%1,                          Zhao-Hui%Qian%NULL%1,                          Chuan%Qin%NULL%0,                          Qi%Jin%NULL%0,                          Bin%Cao%NULL%0,                          Jian-Wei%Wang%NULL%1,                          Xiu-Yuan%Hao%NULL%0,                          Xiu-Yuan%Hao%NULL%0,                          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,                          Xiang%Li%NULL%1,                          Yong%Gao%NULL%1,                          Junjie%Zhou%NULL%1,                          Sihua%Wang%NULL%1,                          Bo%Huang%NULL%1,                          Junhua%Wu%NULL%1,                          Qin%Cao%NULL%1,                          Yajun%Chen%NULL%1,                          Zhenkao%Wang%NULL%1,                          Danju%Luo%NULL%1,                          Ting%Zhou%NULL%1,                          Ruiting%Li%NULL%0,                          You%Shang%NULL%0,                          Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,                          Guorong%Zhang%NULL%1,                          Xiaofang%Wang%NULL%1,                          Meng%Guo%NULL%1,                          Weihong%Zeng%NULL%1,                          Zhihao%Xu%NULL%1,                          Dan%Cao%NULL%1,                          Aijun%Pan%NULL%0,                          Yucai%Wang%NULL%1,                          Kaiguang%Zhang%NULL%1,                          Xiaoling%Ma%NULL%1,                          Zhengxu%Chen%NULL%1,                          Tengchuan%Jin%NULL%1,                          Lianxin%Liu%NULL%0,                          Jianping%Weng%NULL%1,                          Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,                           Y.% Tong%null%1,                           G.% Shen%null%1,                           A.% Fu%null%1,                           Y.% Lai%null%1,                           X.% Zhou%null%2,                           Y.% Yuan%null%1,                           Y.% Wang%null%1,                           Y.% Pan%null%1,                           Z.% Yu%null%1,                           Y.% Li%null%0,                           T.% Liu%null%1,                           H. % Jiang%null%1,        L.%Yu%null%1,        Y.% Tong%null%1,        G.% Shen%null%1,        A.% Fu%null%1,        Y.% Lai%null%1,        X.% Zhou%null%2,        Y.% Yuan%null%1,        Y.% Wang%null%0,        Y.% Pan%null%1,        Z.% Yu%null%1,        Y.% Li%null%0,        T.% Liu%null%1,        H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,                           H.-C.% Zhang%null%1,                           T.% Xu%null%1,                           J.% Wu%null%1,                           M.% Zhu%null%1,                           Y.-Q.% Yu%null%1,                           H.-Y.% Zhang%null%1,                           Z.% Shen%null%1,                           Y.% Li%null%0,                           X.% Zhou%null%0,                           G.-Q.% Zang%null%1,                           J.% Xu%null%1,                           W.-J.% Chen%null%1,                           Y.-J.% Li%null%1,                           D.-S.% Xie%null%1,                           M.-Z.% Zhou%null%1,                           J.-Y.% Sun%null%1,                           J.-Z.% Chen%null%1,                           W.-H. % Zhang%null%1,        J.-W.%Ai%null%1,        H.-C.% Zhang%null%1,        T.% Xu%null%1,        J.% Wu%null%1,        M.% Zhu%null%1,        Y.-Q.% Yu%null%1,        H.-Y.% Zhang%null%1,        Z.% Shen%null%1,        Y.% Li%null%0,        X.% Zhou%null%0,        G.-Q.% Zang%null%1,        J.% Xu%null%1,        W.-J.% Chen%null%1,        Y.-J.% Li%null%1,        D.-S.% Xie%null%1,        M.-Z.% Zhou%null%1,        J.-Y.% Sun%null%1,        J.-Z.% Chen%null%1,        W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,                           Yanfei%Chen%NULL%1,                           Zhengjie%Wu%NULL%1,                           Yunbo%Chen%NULL%1,                           Hainv%Gao%NULL%1,                           Longxian%Lv%NULL%1,                           Feifei%Guo%NULL%1,                           Xuewu%Zhang%NULL%1,                           Rui%Luo%NULL%1,                           Chenjie%Huang%NULL%1,                           Haifeng%Lu%NULL%1,                           Beiwen%Zheng%NULL%1,                           Jiaying%Zhang%NULL%1,                           Ren%Yan%NULL%1,                           Hua%Zhang%NULL%0,                           Huiyong%Jiang%NULL%1,                           Qiaomai%Xu%NULL%1,                           Jing%Guo%NULL%1,                           Yiwen%Gong%NULL%1,                           Lingling%Tang%NULL%1,                           Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,                           Fen%Zhang%NULL%2,                           Grace C.Y.%Lui%NULL%2,                           Yun Kit%Yeoh%NULL%1,                           Amy Y.L.%Li%NULL%1,                           Hui%Zhan%NULL%2,                           Yating%Wan%NULL%1,                           Arthur C.K.%Chung%NULL%1,                           Chun Pan%Cheung%NULL%1,                           Nan%Chen%NULL%2,                           Christopher K.C.%Lai%NULL%1,                           Zigui%Chen%NULL%1,                           Eugene Y.K.%Tso%NULL%2,                           Kitty S.C.%Fung%NULL%1,                           Veronica%Chan%NULL%1,                           Lowell%Ling%NULL%1,                           Gavin%Joynt%NULL%1,                           David S.C.%Hui%NULL%0,                           Francis K.L.%Chan%NULL%2,                           Paul K.S.%Chan%NULL%2,                           Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,                           Hui%Zhan%NULL%0,                           Fen%Zhang%NULL%0,                           Qin%Liu%NULL%0,                           Eugene Y.K.%Tso%NULL%0,                           Grace C.Y.%Lui%NULL%0,                           Nan%Chen%NULL%0,                           Amy%Li%NULL%1,                           Wenqi%Lu%NULL%1,                           Francis K.L.%Chan%NULL%0,                           Paul K.S.%Chan%NULL%0,                           Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,                           Jing-Wen%Ai%NULL%1,                           Wenjiao%Yang%NULL%1,                           Xian%Zhou%NULL%1,                           Fusheng%He%NULL%1,                           Shumei%Xie%NULL%1,                           Weiqi%Zeng%NULL%1,                           Yang%Li%NULL%0,                           Yiqi%Yu%NULL%1,                           Xuejing%Gou%NULL%1,                           Yongjun%Li%NULL%1,                           Xiaorui%Wang%NULL%1,                           Hang%Su%NULL%1,                           Teng%Xu%NULL%2,                           Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,                           Brunella%Posteraro%NULL%1,                           Francesca Romana%Ponziani%NULL%1,                           Paola%Cattani%NULL%1,                           Antonio%Gasbarrini%NULL%0,                           Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,                           Weiyong%Liu%NULL%0,                           Qi%Zhang%NULL%1,                           Ke%Xu%NULL%2,                           Ke%Xu%NULL%0,                           Guangming%Ye%NULL%0,                           Weichen%Wu%NULL%1,                           Ziyong%Sun%NULL%1,                           Fang%Liu%NULL%0,                           Kailang%Wu%NULL%0,                           Bo%Zhong%NULL%1,                           Yi%Mei%NULL%1,                           Wenxia%Zhang%NULL%1,                           Yu%Chen%NULL%0,                           Yirong%Li%NULL%0,                           Yirong%Li%NULL%0,                           Mang%Shi%NULL%1,                           Ke%Lan%NULL%1,                           Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                           Ye-Ming%Wang%NULL%1,                           Zhi-Qiang%Wu%NULL%1,                           Zi-Chun%Xiang%NULL%1,                           Li%Guo%NULL%0,                           Teng%Xu%NULL%0,                           Yong-Zhong%Jiang%NULL%1,                           Yan%Xiong%NULL%0,                           Yong-Jun%Li%NULL%1,                           Xing-Wang%Li%NULL%1,                           Hui%Li%NULL%0,                           Guo-Hui%Fan%NULL%1,                           Xiao-Ying%Gu%NULL%1,                           Yan%Xiao%NULL%0,                           Hong%Gao%NULL%0,                           Jiu-Yang%Xu%NULL%1,                           Fan%Yang%NULL%0,                           Xin-Ming%Wang%NULL%1,                           Chao%Wu%NULL%1,                           Lan%Chen%NULL%1,                           Yi-Wei%Liu%NULL%1,                           Bo%Liu%NULL%0,                           Jian%Yang%NULL%1,                           Xiao-Rui%Wang%NULL%1,                           Jie%Dong%NULL%1,                           Li%Li%NULL%0,                           Chao-Lin%Huang%NULL%1,                           Jian-Ping%Zhao%NULL%1,                           Yi%Hu%NULL%0,                           Zhen-Shun%Cheng%NULL%1,                           Lin-Lin%Liu%NULL%1,                           Zhao-Hui%Qian%NULL%1,                           Chuan%Qin%NULL%0,                           Qi%Jin%NULL%0,                           Bin%Cao%NULL%0,                           Jian-Wei%Wang%NULL%1,                           Xiu-Yuan%Hao%NULL%0,                           Xiu-Yuan%Hao%NULL%0,                           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,                           Xiang%Li%NULL%1,                           Yong%Gao%NULL%1,                           Junjie%Zhou%NULL%1,                           Sihua%Wang%NULL%1,                           Bo%Huang%NULL%1,                           Junhua%Wu%NULL%1,                           Qin%Cao%NULL%1,                           Yajun%Chen%NULL%1,                           Zhenkao%Wang%NULL%1,                           Danju%Luo%NULL%1,                           Ting%Zhou%NULL%1,                           Ruiting%Li%NULL%0,                           You%Shang%NULL%0,                           Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,                           Guorong%Zhang%NULL%1,                           Xiaofang%Wang%NULL%1,                           Meng%Guo%NULL%1,                           Weihong%Zeng%NULL%1,                           Zhihao%Xu%NULL%1,                           Dan%Cao%NULL%1,                           Aijun%Pan%NULL%0,                           Yucai%Wang%NULL%1,                           Kaiguang%Zhang%NULL%1,                           Xiaoling%Ma%NULL%1,                           Zhengxu%Chen%NULL%1,                           Tengchuan%Jin%NULL%1,                           Lianxin%Liu%NULL%0,                           Jianping%Weng%NULL%1,                           Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ L.%Yu%null%1,                            Y.% Tong%null%1,                            G.% Shen%null%1,                            A.% Fu%null%1,                            Y.% Lai%null%1,                            X.% Zhou%null%2,                            Y.% Yuan%null%1,                            Y.% Wang%null%1,                            Y.% Pan%null%1,                            Z.% Yu%null%1,                            Y.% Li%null%0,                            T.% Liu%null%1,                            H. % Jiang%null%1,         L.%Yu%null%1,         Y.% Tong%null%1,         G.% Shen%null%1,         A.% Fu%null%1,         Y.% Lai%null%1,         X.% Zhou%null%2,         Y.% Yuan%null%1,         Y.% Wang%null%0,         Y.% Pan%null%1,         Z.% Yu%null%1,         Y.% Li%null%0,         T.% Liu%null%1,         H. % Jiang%null%1]</t>
+  </si>
+  <si>
+    <t>[ J.-W.%Ai%null%1,                            H.-C.% Zhang%null%1,                            T.% Xu%null%1,                            J.% Wu%null%1,                            M.% Zhu%null%1,                            Y.-Q.% Yu%null%1,                            H.-Y.% Zhang%null%1,                            Z.% Shen%null%1,                            Y.% Li%null%0,                            X.% Zhou%null%0,                            G.-Q.% Zang%null%1,                            J.% Xu%null%1,                            W.-J.% Chen%null%1,                            Y.-J.% Li%null%1,                            D.-S.% Xie%null%1,                            M.-Z.% Zhou%null%1,                            J.-Y.% Sun%null%1,                            J.-Z.% Chen%null%1,                            W.-H. % Zhang%null%1,         J.-W.%Ai%null%1,         H.-C.% Zhang%null%1,         T.% Xu%null%1,         J.% Wu%null%1,         M.% Zhu%null%1,         Y.-Q.% Yu%null%1,         H.-Y.% Zhang%null%1,         Z.% Shen%null%1,         Y.% Li%null%0,         X.% Zhou%null%0,         G.-Q.% Zang%null%1,         J.% Xu%null%1,         W.-J.% Chen%null%1,         Y.-J.% Li%null%1,         D.-S.% Xie%null%1,         M.-Z.% Zhou%null%1,         J.-Y.% Sun%null%1,         J.-Z.% Chen%null%1,         W.-H. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1608,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1574,7 +1640,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1606,7 +1672,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1638,7 +1704,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1670,7 +1736,7 @@
         <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1702,7 +1768,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1734,7 +1800,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1766,7 +1832,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1798,7 +1864,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1830,7 +1896,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1862,7 +1928,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
